--- a/database/industries/ghaza/ghevita/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghevita/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghevita\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6317305A-2AAE-4EEB-8114-8BCE22B7CE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/07</t>
@@ -186,6 +184,9 @@
     <t>ماه 10 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 11 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -282,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +476,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -487,7 +488,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -534,6 +535,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -569,6 +587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,17 +755,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -785,7 +820,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +877,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -899,7 +934,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -954,7 +989,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1046,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1103,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1123,7 +1158,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1335,7 +1370,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1392,7 +1427,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1481,45 +1516,45 @@
       <c r="AE11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>58</v>
+      <c r="AF11" s="11">
+        <v>1666</v>
       </c>
       <c r="AG11" s="11">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AH11" s="11">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AI11" s="11">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AJ11" s="11">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AK11" s="11">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AL11" s="11">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AM11" s="11">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AN11" s="11">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AO11" s="11">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AP11" s="11">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1628</v>
-      </c>
-      <c r="AR11" s="11">
         <v>2090</v>
       </c>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1551,7 +1586,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1676,41 +1711,41 @@
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
+      <c r="AR12" s="13">
+        <v>0</v>
       </c>
       <c r="AS12" s="13">
-        <v>0</v>
+        <v>1618</v>
       </c>
       <c r="AT12" s="13">
-        <v>1618</v>
+        <v>1006</v>
       </c>
       <c r="AU12" s="13">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AV12" s="13">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AW12" s="13">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AX12" s="13">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AY12" s="13">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2003</v>
+        <v>1836</v>
       </c>
       <c r="BA12" s="13">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="BB12" s="13">
-        <v>1342</v>
+        <v>883</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1841,23 +1876,23 @@
       <c r="AS13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT13" s="11" t="s">
-        <v>58</v>
+      <c r="AT13" s="11">
+        <v>0</v>
       </c>
       <c r="AU13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="11">
         <v>383</v>
       </c>
-      <c r="AW13" s="11" t="s">
-        <v>58</v>
+      <c r="AV13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
-        <v>0</v>
+        <v>-743</v>
       </c>
       <c r="AY13" s="11">
-        <v>-743</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
         <v>0</v>
@@ -1869,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1957,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="AF14" s="15">
-        <v>0</v>
+        <v>1666</v>
       </c>
       <c r="AG14" s="15">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AH14" s="15">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AI14" s="15">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AJ14" s="15">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AK14" s="15">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AL14" s="15">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AM14" s="15">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AN14" s="15">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AO14" s="15">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AP14" s="15">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AQ14" s="15">
-        <v>1628</v>
+        <v>2090</v>
       </c>
       <c r="AR14" s="15">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="15">
-        <v>0</v>
+        <v>1618</v>
       </c>
       <c r="AT14" s="15">
-        <v>1618</v>
+        <v>1006</v>
       </c>
       <c r="AU14" s="15">
-        <v>1006</v>
+        <v>1840</v>
       </c>
       <c r="AV14" s="15">
-        <v>1840</v>
+        <v>1863</v>
       </c>
       <c r="AW14" s="15">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AX14" s="15">
-        <v>1601</v>
+        <v>699</v>
       </c>
       <c r="AY14" s="15">
-        <v>699</v>
+        <v>2003</v>
       </c>
       <c r="AZ14" s="15">
-        <v>2003</v>
+        <v>1836</v>
       </c>
       <c r="BA14" s="15">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="BB14" s="15">
-        <v>1342</v>
+        <v>883</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -2083,7 +2118,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -2172,8 +2207,8 @@
       <c r="AE16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="11" t="s">
-        <v>58</v>
+      <c r="AF16" s="11">
+        <v>0</v>
       </c>
       <c r="AG16" s="11">
         <v>0</v>
@@ -2184,8 +2219,8 @@
       <c r="AI16" s="11">
         <v>0</v>
       </c>
-      <c r="AJ16" s="11">
-        <v>0</v>
+      <c r="AJ16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK16" s="11" t="s">
         <v>58</v>
@@ -2242,7 +2277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
@@ -2367,8 +2402,8 @@
       <c r="AQ17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="13" t="s">
-        <v>58</v>
+      <c r="AR17" s="13">
+        <v>0</v>
       </c>
       <c r="AS17" s="13">
         <v>0</v>
@@ -2401,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
@@ -2558,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>64</v>
       </c>
@@ -2615,7 +2650,7 @@
       <c r="BA19" s="19"/>
       <c r="BB19" s="19"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2702,8 +2737,8 @@
       <c r="AE20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF20" s="17" t="s">
-        <v>58</v>
+      <c r="AF20" s="17">
+        <v>0</v>
       </c>
       <c r="AG20" s="17">
         <v>0</v>
@@ -2772,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>66</v>
       </c>
@@ -2860,76 +2895,76 @@
         <v>0</v>
       </c>
       <c r="AF21" s="15">
-        <v>0</v>
+        <v>1666</v>
       </c>
       <c r="AG21" s="15">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AH21" s="15">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AI21" s="15">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AJ21" s="15">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AK21" s="15">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AL21" s="15">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AM21" s="15">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AN21" s="15">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AO21" s="15">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AP21" s="15">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AQ21" s="15">
-        <v>1628</v>
+        <v>2090</v>
       </c>
       <c r="AR21" s="15">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="15">
-        <v>0</v>
+        <v>1618</v>
       </c>
       <c r="AT21" s="15">
-        <v>1618</v>
+        <v>1006</v>
       </c>
       <c r="AU21" s="15">
-        <v>1006</v>
+        <v>1840</v>
       </c>
       <c r="AV21" s="15">
-        <v>1840</v>
+        <v>1863</v>
       </c>
       <c r="AW21" s="15">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AX21" s="15">
-        <v>1601</v>
+        <v>699</v>
       </c>
       <c r="AY21" s="15">
-        <v>699</v>
+        <v>2003</v>
       </c>
       <c r="AZ21" s="15">
-        <v>2003</v>
+        <v>1836</v>
       </c>
       <c r="BA21" s="15">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="BB21" s="15">
-        <v>1342</v>
+        <v>883</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2984,7 +3019,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3039,7 +3074,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3094,7 +3129,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>67</v>
       </c>
@@ -3251,7 +3286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3306,7 +3341,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
@@ -3363,7 +3398,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>56</v>
       </c>
@@ -3452,45 +3487,45 @@
       <c r="AE28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="11" t="s">
-        <v>58</v>
+      <c r="AF28" s="11">
+        <v>2326</v>
       </c>
       <c r="AG28" s="11">
-        <v>2326</v>
+        <v>2422</v>
       </c>
       <c r="AH28" s="11">
-        <v>2422</v>
+        <v>2036</v>
       </c>
       <c r="AI28" s="11">
-        <v>2036</v>
+        <v>536</v>
       </c>
       <c r="AJ28" s="11">
-        <v>536</v>
+        <v>1237</v>
       </c>
       <c r="AK28" s="11">
-        <v>1237</v>
+        <v>1134</v>
       </c>
       <c r="AL28" s="11">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="AM28" s="11">
-        <v>1113</v>
+        <v>1053</v>
       </c>
       <c r="AN28" s="11">
-        <v>1053</v>
+        <v>1377</v>
       </c>
       <c r="AO28" s="11">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="AP28" s="11">
-        <v>1395</v>
+        <v>1579</v>
       </c>
       <c r="AQ28" s="11">
-        <v>1579</v>
-      </c>
-      <c r="AR28" s="11">
         <v>1572</v>
       </c>
+      <c r="AR28" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS28" s="11" t="s">
         <v>58</v>
       </c>
@@ -3522,7 +3557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>59</v>
       </c>
@@ -3647,41 +3682,41 @@
       <c r="AQ29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="13" t="s">
-        <v>58</v>
+      <c r="AR29" s="13">
+        <v>0</v>
       </c>
       <c r="AS29" s="13">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="AT29" s="13">
-        <v>469</v>
+        <v>816</v>
       </c>
       <c r="AU29" s="13">
-        <v>816</v>
+        <v>1623</v>
       </c>
       <c r="AV29" s="13">
-        <v>1623</v>
+        <v>1728</v>
       </c>
       <c r="AW29" s="13">
-        <v>1728</v>
+        <v>1278</v>
       </c>
       <c r="AX29" s="13">
-        <v>1278</v>
+        <v>1680</v>
       </c>
       <c r="AY29" s="13">
-        <v>1680</v>
+        <v>1642</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1642</v>
+        <v>1356</v>
       </c>
       <c r="BA29" s="13">
-        <v>1356</v>
+        <v>773</v>
       </c>
       <c r="BB29" s="13">
-        <v>773</v>
+        <v>1488</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>60</v>
       </c>
@@ -3812,23 +3847,23 @@
       <c r="AS30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT30" s="11" t="s">
-        <v>58</v>
+      <c r="AT30" s="11">
+        <v>248</v>
       </c>
       <c r="AU30" s="11">
-        <v>248</v>
-      </c>
-      <c r="AV30" s="11">
         <v>135</v>
       </c>
-      <c r="AW30" s="11" t="s">
-        <v>58</v>
+      <c r="AV30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW30" s="11">
+        <v>0</v>
       </c>
       <c r="AX30" s="11">
-        <v>0</v>
+        <v>-743</v>
       </c>
       <c r="AY30" s="11">
-        <v>-743</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="11">
         <v>0</v>
@@ -3840,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>69</v>
       </c>
@@ -3928,76 +3963,76 @@
         <v>0</v>
       </c>
       <c r="AF31" s="15">
-        <v>0</v>
+        <v>2326</v>
       </c>
       <c r="AG31" s="15">
-        <v>2326</v>
+        <v>2422</v>
       </c>
       <c r="AH31" s="15">
-        <v>2422</v>
+        <v>2036</v>
       </c>
       <c r="AI31" s="15">
-        <v>2036</v>
+        <v>536</v>
       </c>
       <c r="AJ31" s="15">
-        <v>536</v>
+        <v>1237</v>
       </c>
       <c r="AK31" s="15">
-        <v>1237</v>
+        <v>1134</v>
       </c>
       <c r="AL31" s="15">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="AM31" s="15">
-        <v>1113</v>
+        <v>1053</v>
       </c>
       <c r="AN31" s="15">
-        <v>1053</v>
+        <v>1377</v>
       </c>
       <c r="AO31" s="15">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="AP31" s="15">
-        <v>1395</v>
+        <v>1579</v>
       </c>
       <c r="AQ31" s="15">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="AR31" s="15">
-        <v>1572</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="15">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="AT31" s="15">
-        <v>469</v>
+        <v>1064</v>
       </c>
       <c r="AU31" s="15">
-        <v>1064</v>
+        <v>1758</v>
       </c>
       <c r="AV31" s="15">
-        <v>1758</v>
+        <v>1728</v>
       </c>
       <c r="AW31" s="15">
-        <v>1728</v>
+        <v>1278</v>
       </c>
       <c r="AX31" s="15">
-        <v>1278</v>
+        <v>937</v>
       </c>
       <c r="AY31" s="15">
-        <v>937</v>
+        <v>1642</v>
       </c>
       <c r="AZ31" s="15">
-        <v>1642</v>
+        <v>1356</v>
       </c>
       <c r="BA31" s="15">
-        <v>1356</v>
+        <v>773</v>
       </c>
       <c r="BB31" s="15">
-        <v>773</v>
+        <v>1488</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>70</v>
       </c>
@@ -4054,7 +4089,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -4143,45 +4178,45 @@
       <c r="AE33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF33" s="11" t="s">
-        <v>58</v>
+      <c r="AF33" s="11">
+        <v>175</v>
       </c>
       <c r="AG33" s="11">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="AH33" s="11">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="AI33" s="11">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="AJ33" s="11">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="AK33" s="11">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="AL33" s="11">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="AM33" s="11">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AN33" s="11">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="AO33" s="11">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="AP33" s="11">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="AQ33" s="11">
-        <v>563</v>
-      </c>
-      <c r="AR33" s="11">
         <v>629</v>
       </c>
+      <c r="AR33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS33" s="11" t="s">
         <v>58</v>
       </c>
@@ -4213,7 +4248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
@@ -4338,41 +4373,41 @@
       <c r="AQ34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
+      <c r="AR34" s="13">
+        <v>0</v>
       </c>
       <c r="AS34" s="13">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AT34" s="13">
-        <v>406</v>
+        <v>205</v>
       </c>
       <c r="AU34" s="13">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AV34" s="13">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="AW34" s="13">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AX34" s="13">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AY34" s="13">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="AZ34" s="13">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="BA34" s="13">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="BB34" s="13">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>71</v>
       </c>
@@ -4460,76 +4495,76 @@
         <v>0</v>
       </c>
       <c r="AF35" s="17">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AG35" s="17">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="AH35" s="17">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="AI35" s="17">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="AJ35" s="17">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="AK35" s="17">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="AL35" s="17">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="AM35" s="17">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AN35" s="17">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="AO35" s="17">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="AP35" s="17">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="AQ35" s="17">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="AR35" s="17">
-        <v>629</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="17">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AT35" s="17">
-        <v>406</v>
+        <v>205</v>
       </c>
       <c r="AU35" s="17">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AV35" s="17">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="AW35" s="17">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AX35" s="17">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AY35" s="17">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="AZ35" s="17">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="BA35" s="17">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="BB35" s="17">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>64</v>
       </c>
@@ -4586,7 +4621,7 @@
       <c r="BA36" s="19"/>
       <c r="BB36" s="19"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>65</v>
       </c>
@@ -4673,8 +4708,8 @@
       <c r="AE37" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF37" s="17" t="s">
-        <v>58</v>
+      <c r="AF37" s="17">
+        <v>0</v>
       </c>
       <c r="AG37" s="17">
         <v>0</v>
@@ -4743,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
@@ -4800,7 +4835,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>56</v>
       </c>
@@ -4889,45 +4924,45 @@
       <c r="AE39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF39" s="11" t="s">
-        <v>58</v>
+      <c r="AF39" s="11">
+        <v>-35</v>
       </c>
       <c r="AG39" s="11">
-        <v>-35</v>
+        <v>-68</v>
       </c>
       <c r="AH39" s="11">
-        <v>-68</v>
+        <v>-78</v>
       </c>
       <c r="AI39" s="11">
-        <v>-78</v>
+        <v>-18</v>
       </c>
       <c r="AJ39" s="11">
-        <v>-18</v>
+        <v>-95</v>
       </c>
       <c r="AK39" s="11">
-        <v>-95</v>
+        <v>-32</v>
       </c>
       <c r="AL39" s="11">
-        <v>-32</v>
+        <v>-15</v>
       </c>
       <c r="AM39" s="11">
-        <v>-15</v>
+        <v>-37</v>
       </c>
       <c r="AN39" s="11">
-        <v>-37</v>
+        <v>-19</v>
       </c>
       <c r="AO39" s="11">
-        <v>-19</v>
+        <v>-185</v>
       </c>
       <c r="AP39" s="11">
-        <v>-185</v>
+        <v>-43</v>
       </c>
       <c r="AQ39" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AR39" s="11">
         <v>-71</v>
       </c>
+      <c r="AR39" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS39" s="11" t="s">
         <v>58</v>
       </c>
@@ -4959,7 +4994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -5084,41 +5119,41 @@
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
+      <c r="AR40" s="13">
+        <v>0</v>
       </c>
       <c r="AS40" s="13">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="AT40" s="13">
-        <v>-42</v>
+        <v>-16</v>
       </c>
       <c r="AU40" s="13">
+        <v>-36</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>-23</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>-15</v>
+      </c>
+      <c r="AX40" s="13">
+        <v>-24</v>
+      </c>
+      <c r="AY40" s="13">
+        <v>-8</v>
+      </c>
+      <c r="AZ40" s="13">
         <v>-16</v>
       </c>
-      <c r="AV40" s="13">
-        <v>-36</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AX40" s="13">
-        <v>-15</v>
-      </c>
-      <c r="AY40" s="13">
-        <v>-24</v>
-      </c>
-      <c r="AZ40" s="13">
-        <v>-8</v>
-      </c>
       <c r="BA40" s="13">
-        <v>-16</v>
+        <v>-112</v>
       </c>
       <c r="BB40" s="13">
-        <v>-112</v>
+        <v>-99</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>73</v>
       </c>
@@ -5205,77 +5240,77 @@
       <c r="AE41" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF41" s="17" t="s">
-        <v>58</v>
+      <c r="AF41" s="17">
+        <v>-35</v>
       </c>
       <c r="AG41" s="17">
-        <v>-35</v>
+        <v>-68</v>
       </c>
       <c r="AH41" s="17">
-        <v>-68</v>
+        <v>-78</v>
       </c>
       <c r="AI41" s="17">
-        <v>-78</v>
+        <v>-18</v>
       </c>
       <c r="AJ41" s="17">
-        <v>-18</v>
+        <v>-95</v>
       </c>
       <c r="AK41" s="17">
-        <v>-95</v>
+        <v>-32</v>
       </c>
       <c r="AL41" s="17">
-        <v>-32</v>
+        <v>-15</v>
       </c>
       <c r="AM41" s="17">
+        <v>-37</v>
+      </c>
+      <c r="AN41" s="17">
+        <v>-19</v>
+      </c>
+      <c r="AO41" s="17">
+        <v>-185</v>
+      </c>
+      <c r="AP41" s="17">
+        <v>-43</v>
+      </c>
+      <c r="AQ41" s="17">
+        <v>-71</v>
+      </c>
+      <c r="AR41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="17">
+        <v>-42</v>
+      </c>
+      <c r="AT41" s="17">
+        <v>-16</v>
+      </c>
+      <c r="AU41" s="17">
+        <v>-36</v>
+      </c>
+      <c r="AV41" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AW41" s="17">
         <v>-15</v>
       </c>
-      <c r="AN41" s="17">
-        <v>-37</v>
-      </c>
-      <c r="AO41" s="17">
-        <v>-19</v>
-      </c>
-      <c r="AP41" s="17">
-        <v>-185</v>
-      </c>
-      <c r="AQ41" s="17">
-        <v>-43</v>
-      </c>
-      <c r="AR41" s="17">
-        <v>-71</v>
-      </c>
-      <c r="AS41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="17">
-        <v>-42</v>
-      </c>
-      <c r="AU41" s="17">
+      <c r="AX41" s="17">
+        <v>-24</v>
+      </c>
+      <c r="AY41" s="17">
+        <v>-8</v>
+      </c>
+      <c r="AZ41" s="17">
         <v>-16</v>
       </c>
-      <c r="AV41" s="17">
-        <v>-36</v>
-      </c>
-      <c r="AW41" s="17">
-        <v>-23</v>
-      </c>
-      <c r="AX41" s="17">
-        <v>-15</v>
-      </c>
-      <c r="AY41" s="17">
-        <v>-24</v>
-      </c>
-      <c r="AZ41" s="17">
-        <v>-8</v>
-      </c>
       <c r="BA41" s="17">
-        <v>-16</v>
+        <v>-112</v>
       </c>
       <c r="BB41" s="17">
-        <v>-112</v>
+        <v>-99</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>66</v>
       </c>
@@ -5363,76 +5398,76 @@
         <v>0</v>
       </c>
       <c r="AF42" s="15">
-        <v>0</v>
+        <v>2466</v>
       </c>
       <c r="AG42" s="15">
-        <v>2466</v>
+        <v>2732</v>
       </c>
       <c r="AH42" s="15">
-        <v>2732</v>
+        <v>2171</v>
       </c>
       <c r="AI42" s="15">
-        <v>2171</v>
+        <v>576</v>
       </c>
       <c r="AJ42" s="15">
-        <v>576</v>
+        <v>1376</v>
       </c>
       <c r="AK42" s="15">
-        <v>1376</v>
+        <v>1491</v>
       </c>
       <c r="AL42" s="15">
-        <v>1491</v>
+        <v>1386</v>
       </c>
       <c r="AM42" s="15">
-        <v>1386</v>
+        <v>1309</v>
       </c>
       <c r="AN42" s="15">
-        <v>1309</v>
+        <v>1730</v>
       </c>
       <c r="AO42" s="15">
-        <v>1730</v>
+        <v>1452</v>
       </c>
       <c r="AP42" s="15">
-        <v>1452</v>
+        <v>2099</v>
       </c>
       <c r="AQ42" s="15">
-        <v>2099</v>
+        <v>2130</v>
       </c>
       <c r="AR42" s="15">
-        <v>2130</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="15">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="AT42" s="15">
-        <v>833</v>
+        <v>1253</v>
       </c>
       <c r="AU42" s="15">
-        <v>1253</v>
+        <v>1939</v>
       </c>
       <c r="AV42" s="15">
-        <v>1939</v>
+        <v>1769</v>
       </c>
       <c r="AW42" s="15">
-        <v>1769</v>
+        <v>1413</v>
       </c>
       <c r="AX42" s="15">
-        <v>1413</v>
+        <v>1014</v>
       </c>
       <c r="AY42" s="15">
-        <v>1014</v>
+        <v>1778</v>
       </c>
       <c r="AZ42" s="15">
-        <v>1778</v>
+        <v>1562</v>
       </c>
       <c r="BA42" s="15">
-        <v>1562</v>
+        <v>815</v>
       </c>
       <c r="BB42" s="15">
-        <v>815</v>
+        <v>1510</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5487,7 +5522,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5542,7 +5577,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5597,7 +5632,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>74</v>
       </c>
@@ -5754,7 +5789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5809,7 +5844,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>75</v>
       </c>
@@ -5866,7 +5901,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
@@ -5955,45 +5990,45 @@
       <c r="AE49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF49" s="11" t="s">
-        <v>58</v>
+      <c r="AF49" s="11">
+        <v>591875</v>
       </c>
       <c r="AG49" s="11">
-        <v>591875</v>
+        <v>667102</v>
       </c>
       <c r="AH49" s="11">
-        <v>667102</v>
+        <v>505301</v>
       </c>
       <c r="AI49" s="11">
-        <v>505301</v>
+        <v>148315</v>
       </c>
       <c r="AJ49" s="11">
-        <v>148315</v>
+        <v>347518</v>
       </c>
       <c r="AK49" s="11">
-        <v>347518</v>
+        <v>351026</v>
       </c>
       <c r="AL49" s="11">
-        <v>351026</v>
+        <v>371688</v>
       </c>
       <c r="AM49" s="11">
-        <v>371688</v>
+        <v>361152</v>
       </c>
       <c r="AN49" s="11">
-        <v>361152</v>
+        <v>512244</v>
       </c>
       <c r="AO49" s="11">
-        <v>512244</v>
+        <v>582123</v>
       </c>
       <c r="AP49" s="11">
-        <v>582123</v>
+        <v>693489</v>
       </c>
       <c r="AQ49" s="11">
-        <v>693489</v>
-      </c>
-      <c r="AR49" s="11">
         <v>710772</v>
       </c>
+      <c r="AR49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS49" s="11" t="s">
         <v>58</v>
       </c>
@@ -6025,7 +6060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>59</v>
       </c>
@@ -6150,41 +6185,41 @@
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
+      <c r="AR50" s="13">
+        <v>0</v>
       </c>
       <c r="AS50" s="13">
-        <v>0</v>
+        <v>263119</v>
       </c>
       <c r="AT50" s="13">
-        <v>263119</v>
+        <v>453624</v>
       </c>
       <c r="AU50" s="13">
-        <v>453624</v>
+        <v>921107</v>
       </c>
       <c r="AV50" s="13">
-        <v>921107</v>
+        <v>1333862</v>
       </c>
       <c r="AW50" s="13">
-        <v>1333862</v>
+        <v>1030117</v>
       </c>
       <c r="AX50" s="13">
-        <v>1030117</v>
+        <v>1392106</v>
       </c>
       <c r="AY50" s="13">
-        <v>1392106</v>
+        <v>1357789</v>
       </c>
       <c r="AZ50" s="13">
-        <v>1357789</v>
+        <v>1131064</v>
       </c>
       <c r="BA50" s="13">
-        <v>1131064</v>
+        <v>625828</v>
       </c>
       <c r="BB50" s="13">
-        <v>625828</v>
+        <v>1245000</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>60</v>
       </c>
@@ -6315,23 +6350,23 @@
       <c r="AS51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT51" s="11" t="s">
-        <v>58</v>
+      <c r="AT51" s="11">
+        <v>196456</v>
       </c>
       <c r="AU51" s="11">
-        <v>196456</v>
-      </c>
-      <c r="AV51" s="11">
         <v>108064</v>
       </c>
-      <c r="AW51" s="11" t="s">
-        <v>58</v>
+      <c r="AV51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW51" s="11">
+        <v>0</v>
       </c>
       <c r="AX51" s="11">
-        <v>0</v>
+        <v>-608576</v>
       </c>
       <c r="AY51" s="11">
-        <v>-608576</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="11">
         <v>0</v>
@@ -6343,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>69</v>
       </c>
@@ -6431,76 +6466,76 @@
         <v>0</v>
       </c>
       <c r="AF52" s="15">
-        <v>0</v>
+        <v>591875</v>
       </c>
       <c r="AG52" s="15">
-        <v>591875</v>
+        <v>667102</v>
       </c>
       <c r="AH52" s="15">
-        <v>667102</v>
+        <v>505301</v>
       </c>
       <c r="AI52" s="15">
-        <v>505301</v>
+        <v>148315</v>
       </c>
       <c r="AJ52" s="15">
-        <v>148315</v>
+        <v>347518</v>
       </c>
       <c r="AK52" s="15">
-        <v>347518</v>
+        <v>351026</v>
       </c>
       <c r="AL52" s="15">
-        <v>351026</v>
+        <v>371688</v>
       </c>
       <c r="AM52" s="15">
-        <v>371688</v>
+        <v>361152</v>
       </c>
       <c r="AN52" s="15">
-        <v>361152</v>
+        <v>512244</v>
       </c>
       <c r="AO52" s="15">
-        <v>512244</v>
+        <v>582123</v>
       </c>
       <c r="AP52" s="15">
-        <v>582123</v>
+        <v>693489</v>
       </c>
       <c r="AQ52" s="15">
-        <v>693489</v>
+        <v>710772</v>
       </c>
       <c r="AR52" s="15">
-        <v>710772</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="15">
-        <v>0</v>
+        <v>263119</v>
       </c>
       <c r="AT52" s="15">
-        <v>263119</v>
+        <v>650080</v>
       </c>
       <c r="AU52" s="15">
-        <v>650080</v>
+        <v>1029171</v>
       </c>
       <c r="AV52" s="15">
-        <v>1029171</v>
+        <v>1333862</v>
       </c>
       <c r="AW52" s="15">
-        <v>1333862</v>
+        <v>1030117</v>
       </c>
       <c r="AX52" s="15">
-        <v>1030117</v>
+        <v>783530</v>
       </c>
       <c r="AY52" s="15">
-        <v>783530</v>
+        <v>1357789</v>
       </c>
       <c r="AZ52" s="15">
-        <v>1357789</v>
+        <v>1131064</v>
       </c>
       <c r="BA52" s="15">
-        <v>1131064</v>
+        <v>625828</v>
       </c>
       <c r="BB52" s="15">
-        <v>625828</v>
+        <v>1245000</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>77</v>
       </c>
@@ -6557,7 +6592,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
@@ -6646,45 +6681,45 @@
       <c r="AE54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF54" s="11" t="s">
-        <v>58</v>
+      <c r="AF54" s="11">
+        <v>41464</v>
       </c>
       <c r="AG54" s="11">
-        <v>41464</v>
+        <v>88696</v>
       </c>
       <c r="AH54" s="11">
-        <v>88696</v>
+        <v>47391</v>
       </c>
       <c r="AI54" s="11">
-        <v>47391</v>
+        <v>14081</v>
       </c>
       <c r="AJ54" s="11">
-        <v>14081</v>
+        <v>45181</v>
       </c>
       <c r="AK54" s="11">
-        <v>45181</v>
+        <v>80071</v>
       </c>
       <c r="AL54" s="11">
-        <v>80071</v>
+        <v>66086</v>
       </c>
       <c r="AM54" s="11">
-        <v>66086</v>
+        <v>75454</v>
       </c>
       <c r="AN54" s="11">
-        <v>75454</v>
+        <v>94515</v>
       </c>
       <c r="AO54" s="11">
-        <v>94515</v>
+        <v>62825</v>
       </c>
       <c r="AP54" s="11">
-        <v>62825</v>
+        <v>146157</v>
       </c>
       <c r="AQ54" s="11">
-        <v>146157</v>
-      </c>
-      <c r="AR54" s="11">
         <v>171794</v>
       </c>
+      <c r="AR54" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS54" s="11" t="s">
         <v>58</v>
       </c>
@@ -6716,7 +6751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>59</v>
       </c>
@@ -6841,41 +6876,41 @@
       <c r="AQ55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="13" t="s">
-        <v>58</v>
+      <c r="AR55" s="13">
+        <v>0</v>
       </c>
       <c r="AS55" s="13">
-        <v>0</v>
+        <v>120835</v>
       </c>
       <c r="AT55" s="13">
-        <v>120835</v>
+        <v>56618</v>
       </c>
       <c r="AU55" s="13">
-        <v>56618</v>
+        <v>68599</v>
       </c>
       <c r="AV55" s="13">
-        <v>68599</v>
+        <v>29879</v>
       </c>
       <c r="AW55" s="13">
-        <v>29879</v>
+        <v>78171</v>
       </c>
       <c r="AX55" s="13">
-        <v>78171</v>
+        <v>52986</v>
       </c>
       <c r="AY55" s="13">
-        <v>52986</v>
+        <v>77146</v>
       </c>
       <c r="AZ55" s="13">
-        <v>77146</v>
+        <v>124026</v>
       </c>
       <c r="BA55" s="13">
-        <v>124026</v>
+        <v>75545</v>
       </c>
       <c r="BB55" s="13">
-        <v>75545</v>
+        <v>62002</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>71</v>
       </c>
@@ -6963,76 +6998,76 @@
         <v>0</v>
       </c>
       <c r="AF56" s="17">
-        <v>0</v>
+        <v>41464</v>
       </c>
       <c r="AG56" s="17">
-        <v>41464</v>
+        <v>88696</v>
       </c>
       <c r="AH56" s="17">
-        <v>88696</v>
+        <v>47391</v>
       </c>
       <c r="AI56" s="17">
-        <v>47391</v>
+        <v>14081</v>
       </c>
       <c r="AJ56" s="17">
-        <v>14081</v>
+        <v>45181</v>
       </c>
       <c r="AK56" s="17">
-        <v>45181</v>
+        <v>80071</v>
       </c>
       <c r="AL56" s="17">
-        <v>80071</v>
+        <v>66086</v>
       </c>
       <c r="AM56" s="17">
-        <v>66086</v>
+        <v>75454</v>
       </c>
       <c r="AN56" s="17">
-        <v>75454</v>
+        <v>94515</v>
       </c>
       <c r="AO56" s="17">
-        <v>94515</v>
+        <v>62825</v>
       </c>
       <c r="AP56" s="17">
-        <v>62825</v>
+        <v>146157</v>
       </c>
       <c r="AQ56" s="17">
-        <v>146157</v>
+        <v>171794</v>
       </c>
       <c r="AR56" s="17">
-        <v>171794</v>
+        <v>0</v>
       </c>
       <c r="AS56" s="17">
-        <v>0</v>
+        <v>120835</v>
       </c>
       <c r="AT56" s="17">
-        <v>120835</v>
+        <v>56618</v>
       </c>
       <c r="AU56" s="17">
-        <v>56618</v>
+        <v>68599</v>
       </c>
       <c r="AV56" s="17">
-        <v>68599</v>
+        <v>29879</v>
       </c>
       <c r="AW56" s="17">
-        <v>29879</v>
+        <v>78171</v>
       </c>
       <c r="AX56" s="17">
-        <v>78171</v>
+        <v>52986</v>
       </c>
       <c r="AY56" s="17">
-        <v>52986</v>
+        <v>77146</v>
       </c>
       <c r="AZ56" s="17">
-        <v>77146</v>
+        <v>124026</v>
       </c>
       <c r="BA56" s="17">
-        <v>124026</v>
+        <v>75545</v>
       </c>
       <c r="BB56" s="17">
-        <v>75545</v>
+        <v>62002</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
         <v>78</v>
       </c>
@@ -7089,7 +7124,7 @@
       <c r="BA57" s="19"/>
       <c r="BB57" s="19"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>65</v>
       </c>
@@ -7178,8 +7213,8 @@
       <c r="AE58" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF58" s="17" t="s">
-        <v>58</v>
+      <c r="AF58" s="17">
+        <v>0</v>
       </c>
       <c r="AG58" s="17">
         <v>0</v>
@@ -7248,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>79</v>
       </c>
@@ -7305,7 +7340,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
@@ -7394,45 +7429,45 @@
       <c r="AE60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF60" s="11" t="s">
-        <v>58</v>
+      <c r="AF60" s="11">
+        <v>-8958</v>
       </c>
       <c r="AG60" s="11">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AH60" s="11">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AI60" s="11">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AJ60" s="11">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AK60" s="11">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AL60" s="11">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AM60" s="11">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AN60" s="11">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AO60" s="11">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AP60" s="11">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AQ60" s="11">
-        <v>-18062</v>
-      </c>
-      <c r="AR60" s="11">
         <v>-25646</v>
       </c>
+      <c r="AR60" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS60" s="11" t="s">
         <v>58</v>
       </c>
@@ -7464,7 +7499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>59</v>
       </c>
@@ -7589,41 +7624,41 @@
       <c r="AQ61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR61" s="13" t="s">
-        <v>58</v>
+      <c r="AR61" s="13">
+        <v>0</v>
       </c>
       <c r="AS61" s="13">
-        <v>0</v>
+        <v>-20214</v>
       </c>
       <c r="AT61" s="13">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AU61" s="13">
-        <v>-8563</v>
+        <v>-19668</v>
       </c>
       <c r="AV61" s="13">
-        <v>-19668</v>
+        <v>-16756</v>
       </c>
       <c r="AW61" s="13">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AX61" s="13">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AY61" s="13">
-        <v>-20516</v>
+        <v>-8303</v>
       </c>
       <c r="AZ61" s="13">
-        <v>-8303</v>
+        <v>-13644</v>
       </c>
       <c r="BA61" s="13">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="BB61" s="13">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="16" t="s">
         <v>73</v>
       </c>
@@ -7712,77 +7747,77 @@
       <c r="AE62" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF62" s="17" t="s">
-        <v>58</v>
+      <c r="AF62" s="17">
+        <v>-8958</v>
       </c>
       <c r="AG62" s="17">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AH62" s="17">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AI62" s="17">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AJ62" s="17">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AK62" s="17">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AL62" s="17">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AM62" s="17">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AN62" s="17">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AO62" s="17">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AP62" s="17">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AQ62" s="17">
-        <v>-18062</v>
+        <v>-25646</v>
       </c>
       <c r="AR62" s="17">
-        <v>-25646</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="17">
-        <v>0</v>
+        <v>-20214</v>
       </c>
       <c r="AT62" s="17">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AU62" s="17">
-        <v>-8563</v>
+        <v>-19668</v>
       </c>
       <c r="AV62" s="17">
-        <v>-19668</v>
+        <v>-16756</v>
       </c>
       <c r="AW62" s="17">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AX62" s="17">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AY62" s="17">
-        <v>-20516</v>
+        <v>-8303</v>
       </c>
       <c r="AZ62" s="17">
-        <v>-8303</v>
+        <v>-13644</v>
       </c>
       <c r="BA62" s="17">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="BB62" s="17">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>80</v>
       </c>
@@ -7839,7 +7874,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>81</v>
       </c>
@@ -7928,77 +7963,77 @@
       <c r="AE64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF64" s="11" t="s">
-        <v>58</v>
+      <c r="AF64" s="11">
+        <v>-72004</v>
       </c>
       <c r="AG64" s="11">
-        <v>-72004</v>
+        <v>-31609</v>
       </c>
       <c r="AH64" s="11">
-        <v>-31609</v>
+        <v>-65563</v>
       </c>
       <c r="AI64" s="11">
-        <v>-65563</v>
+        <v>-6327</v>
       </c>
       <c r="AJ64" s="11">
-        <v>-6327</v>
+        <v>-50592</v>
       </c>
       <c r="AK64" s="11">
-        <v>-50592</v>
+        <v>-33987</v>
       </c>
       <c r="AL64" s="11">
-        <v>-33987</v>
+        <v>-17116</v>
       </c>
       <c r="AM64" s="11">
-        <v>-17116</v>
+        <v>-15914</v>
       </c>
       <c r="AN64" s="11">
-        <v>-15914</v>
+        <v>-24884</v>
       </c>
       <c r="AO64" s="11">
-        <v>-24884</v>
+        <v>-26636</v>
       </c>
       <c r="AP64" s="11">
-        <v>-26636</v>
+        <v>-41158</v>
       </c>
       <c r="AQ64" s="11">
-        <v>-41158</v>
+        <v>-49124</v>
       </c>
       <c r="AR64" s="11">
-        <v>-49124</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="11">
-        <v>0</v>
+        <v>-6319</v>
       </c>
       <c r="AT64" s="11">
-        <v>-6319</v>
+        <v>-9993</v>
       </c>
       <c r="AU64" s="11">
-        <v>-9993</v>
+        <v>-19062</v>
       </c>
       <c r="AV64" s="11">
-        <v>-19062</v>
+        <v>-25829</v>
       </c>
       <c r="AW64" s="11">
-        <v>-25829</v>
+        <v>-22942</v>
       </c>
       <c r="AX64" s="11">
-        <v>-22942</v>
+        <v>-31897</v>
       </c>
       <c r="AY64" s="11">
-        <v>-31897</v>
+        <v>-25389</v>
       </c>
       <c r="AZ64" s="11">
-        <v>-25389</v>
+        <v>-30640</v>
       </c>
       <c r="BA64" s="11">
-        <v>-30640</v>
+        <v>-12646</v>
       </c>
       <c r="BB64" s="11">
-        <v>-12646</v>
+        <v>-26022</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>66</v>
       </c>
@@ -8086,76 +8121,76 @@
         <v>0</v>
       </c>
       <c r="AF65" s="15">
-        <v>0</v>
+        <v>552377</v>
       </c>
       <c r="AG65" s="15">
-        <v>552377</v>
+        <v>706952</v>
       </c>
       <c r="AH65" s="15">
-        <v>706952</v>
+        <v>465609</v>
       </c>
       <c r="AI65" s="15">
-        <v>465609</v>
+        <v>150097</v>
       </c>
       <c r="AJ65" s="15">
-        <v>150097</v>
+        <v>315345</v>
       </c>
       <c r="AK65" s="15">
-        <v>315345</v>
+        <v>388458</v>
       </c>
       <c r="AL65" s="15">
-        <v>388458</v>
+        <v>416403</v>
       </c>
       <c r="AM65" s="15">
-        <v>416403</v>
+        <v>408971</v>
       </c>
       <c r="AN65" s="15">
-        <v>408971</v>
+        <v>575619</v>
       </c>
       <c r="AO65" s="15">
-        <v>575619</v>
+        <v>571526</v>
       </c>
       <c r="AP65" s="15">
-        <v>571526</v>
+        <v>780426</v>
       </c>
       <c r="AQ65" s="15">
-        <v>780426</v>
+        <v>807796</v>
       </c>
       <c r="AR65" s="15">
-        <v>807796</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="15">
-        <v>0</v>
+        <v>357421</v>
       </c>
       <c r="AT65" s="15">
-        <v>357421</v>
+        <v>688142</v>
       </c>
       <c r="AU65" s="15">
-        <v>688142</v>
+        <v>1059040</v>
       </c>
       <c r="AV65" s="15">
-        <v>1059040</v>
+        <v>1321156</v>
       </c>
       <c r="AW65" s="15">
-        <v>1321156</v>
+        <v>1073277</v>
       </c>
       <c r="AX65" s="15">
-        <v>1073277</v>
+        <v>784103</v>
       </c>
       <c r="AY65" s="15">
-        <v>784103</v>
+        <v>1401243</v>
       </c>
       <c r="AZ65" s="15">
-        <v>1401243</v>
+        <v>1210806</v>
       </c>
       <c r="BA65" s="15">
-        <v>1210806</v>
+        <v>589580</v>
       </c>
       <c r="BB65" s="15">
-        <v>589580</v>
+        <v>1203745</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8210,7 +8245,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8265,7 +8300,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8320,7 +8355,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>82</v>
       </c>
@@ -8477,7 +8512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -8532,7 +8567,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>83</v>
       </c>
@@ -8589,7 +8624,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>56</v>
       </c>
@@ -8678,45 +8713,45 @@
       <c r="AE72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF72" s="11" t="s">
-        <v>58</v>
+      <c r="AF72" s="11">
+        <v>254460447</v>
       </c>
       <c r="AG72" s="11">
-        <v>254460447</v>
+        <v>275434352</v>
       </c>
       <c r="AH72" s="11">
-        <v>275434352</v>
+        <v>248183202</v>
       </c>
       <c r="AI72" s="11">
-        <v>248183202</v>
+        <v>276707090</v>
       </c>
       <c r="AJ72" s="11">
-        <v>276707090</v>
+        <v>280936136</v>
       </c>
       <c r="AK72" s="11">
-        <v>280936136</v>
+        <v>309546737</v>
       </c>
       <c r="AL72" s="11">
-        <v>309546737</v>
+        <v>333951482</v>
       </c>
       <c r="AM72" s="11">
-        <v>333951482</v>
+        <v>342974359</v>
       </c>
       <c r="AN72" s="11">
-        <v>342974359</v>
+        <v>372000000</v>
       </c>
       <c r="AO72" s="11">
-        <v>372000000</v>
+        <v>417292473</v>
       </c>
       <c r="AP72" s="11">
-        <v>417292473</v>
+        <v>439195060</v>
       </c>
       <c r="AQ72" s="11">
-        <v>439195060</v>
-      </c>
-      <c r="AR72" s="11">
         <v>452145038</v>
       </c>
+      <c r="AR72" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS72" s="11" t="s">
         <v>58</v>
       </c>
@@ -8748,7 +8783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>59</v>
       </c>
@@ -8873,41 +8908,41 @@
       <c r="AQ73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR73" s="13" t="s">
-        <v>58</v>
+      <c r="AR73" s="13">
+        <v>533194807</v>
       </c>
       <c r="AS73" s="13">
-        <v>533194807</v>
+        <v>546985095</v>
       </c>
       <c r="AT73" s="13">
-        <v>546985095</v>
+        <v>555911765</v>
       </c>
       <c r="AU73" s="13">
-        <v>555911765</v>
+        <v>571138981</v>
       </c>
       <c r="AV73" s="13">
-        <v>571138981</v>
+        <v>771910880</v>
       </c>
       <c r="AW73" s="13">
-        <v>771910880</v>
+        <v>806038341</v>
       </c>
       <c r="AX73" s="13">
-        <v>806038341</v>
+        <v>828634524</v>
       </c>
       <c r="AY73" s="13">
-        <v>828634524</v>
+        <v>826911693</v>
       </c>
       <c r="AZ73" s="13">
-        <v>826911693</v>
+        <v>834117994</v>
       </c>
       <c r="BA73" s="13">
-        <v>834117994</v>
+        <v>809609314</v>
       </c>
       <c r="BB73" s="13">
-        <v>809609314</v>
+        <v>836693548</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>60</v>
       </c>
@@ -9038,24 +9073,24 @@
       <c r="AS74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT74" s="11" t="s">
-        <v>58</v>
+      <c r="AT74" s="11">
+        <v>792161290</v>
       </c>
       <c r="AU74" s="11">
-        <v>792161290</v>
-      </c>
-      <c r="AV74" s="11">
         <v>800478871</v>
       </c>
+      <c r="AV74" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY74" s="11">
+      <c r="AX74" s="11">
         <v>-819079408</v>
       </c>
+      <c r="AY74" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ74" s="11" t="s">
         <v>58</v>
       </c>
@@ -9066,7 +9101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>85</v>
       </c>
@@ -9123,7 +9158,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
@@ -9212,45 +9247,45 @@
       <c r="AE76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF76" s="11" t="s">
-        <v>58</v>
+      <c r="AF76" s="11">
+        <v>236937143</v>
       </c>
       <c r="AG76" s="11">
-        <v>236937143</v>
+        <v>234645503</v>
       </c>
       <c r="AH76" s="11">
-        <v>234645503</v>
+        <v>222492958</v>
       </c>
       <c r="AI76" s="11">
-        <v>222492958</v>
+        <v>242775862</v>
       </c>
       <c r="AJ76" s="11">
-        <v>242775862</v>
+        <v>193081197</v>
       </c>
       <c r="AK76" s="11">
-        <v>193081197</v>
+        <v>205838046</v>
       </c>
       <c r="AL76" s="11">
-        <v>205838046</v>
+        <v>229465278</v>
       </c>
       <c r="AM76" s="11">
-        <v>229465278</v>
+        <v>257522184</v>
       </c>
       <c r="AN76" s="11">
-        <v>257522184</v>
+        <v>254072581</v>
       </c>
       <c r="AO76" s="11">
-        <v>254072581</v>
+        <v>259607438</v>
       </c>
       <c r="AP76" s="11">
-        <v>259607438</v>
+        <v>259603908</v>
       </c>
       <c r="AQ76" s="11">
-        <v>259603908</v>
-      </c>
-      <c r="AR76" s="11">
         <v>273122417</v>
       </c>
+      <c r="AR76" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS76" s="11" t="s">
         <v>58</v>
       </c>
@@ -9282,7 +9317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>59</v>
       </c>
@@ -9407,38 +9442,38 @@
       <c r="AQ77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="13" t="s">
-        <v>58</v>
+      <c r="AR77" s="13">
+        <v>284408031</v>
       </c>
       <c r="AS77" s="13">
-        <v>284408031</v>
+        <v>289390570</v>
       </c>
       <c r="AT77" s="13">
-        <v>289390570</v>
+        <v>276185366</v>
       </c>
       <c r="AU77" s="13">
-        <v>276185366</v>
+        <v>340091609</v>
       </c>
       <c r="AV77" s="13">
-        <v>340091609</v>
+        <v>466859375</v>
       </c>
       <c r="AW77" s="13">
-        <v>466859375</v>
+        <v>521140000</v>
       </c>
       <c r="AX77" s="13">
-        <v>521140000</v>
+        <v>524613861</v>
       </c>
       <c r="AY77" s="13">
-        <v>524613861</v>
+        <v>535736111</v>
       </c>
       <c r="AZ77" s="13">
-        <v>535736111</v>
+        <v>558675676</v>
       </c>
       <c r="BA77" s="13">
-        <v>558675676</v>
+        <v>490551948</v>
       </c>
       <c r="BB77" s="13">
-        <v>490551948</v>
+        <v>512413223</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghevita/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghevita/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="90">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3320,44 +3320,44 @@
       <c r="Z11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA11" s="13" t="s">
-        <v>58</v>
+      <c r="AA11" s="13" t="n">
+        <v>1666</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>1628</v>
-      </c>
-      <c r="AM11" s="13" t="n">
         <v>2090</v>
+      </c>
+      <c r="AM11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN11" s="13" t="s">
         <v>58</v>
@@ -3551,17 +3551,17 @@
       <c r="AX12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY12" s="16" t="s">
-        <v>58</v>
+      <c r="AY12" s="16" t="n">
+        <v>141</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,53 +3674,53 @@
       <c r="AL13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM13" s="13" t="s">
-        <v>58</v>
+      <c r="AM13" s="13" t="n">
+        <v>1557</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AU13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>2003</v>
+        <v>1836</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>883</v>
+        <v>711</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>757</v>
+        <v>900</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>900</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,17 +3839,17 @@
       <c r="AN14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO14" s="16" t="s">
-        <v>58</v>
+      <c r="AO14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AQ14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="16" t="s">
-        <v>58</v>
+      <c r="AQ14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS14" s="16" t="n">
         <v>0</v>
@@ -3869,8 +3869,8 @@
       <c r="AX14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY14" s="16" t="n">
-        <v>0</v>
+      <c r="AY14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ14" s="16" t="s">
         <v>58</v>
@@ -4028,17 +4028,17 @@
       <c r="AX15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY15" s="13" t="s">
-        <v>58</v>
+      <c r="AY15" s="13" t="n">
+        <v>112</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,17 +4187,17 @@
       <c r="AX16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY16" s="16" t="s">
-        <v>58</v>
+      <c r="AY16" s="16" t="n">
+        <v>83</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,17 +4346,17 @@
       <c r="AX17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY17" s="13" t="s">
-        <v>58</v>
+      <c r="AY17" s="13" t="n">
+        <v>51</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,88 +4432,88 @@
         <v>0</v>
       </c>
       <c r="AA18" s="18" t="n">
-        <v>0</v>
+        <v>1666</v>
       </c>
       <c r="AB18" s="18" t="n">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AC18" s="18" t="n">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AD18" s="18" t="n">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AE18" s="18" t="n">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AF18" s="18" t="n">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AG18" s="18" t="n">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AH18" s="18" t="n">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AI18" s="18" t="n">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AJ18" s="18" t="n">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AK18" s="18" t="n">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AL18" s="18" t="n">
-        <v>1628</v>
+        <v>2090</v>
       </c>
       <c r="AM18" s="18" t="n">
-        <v>2090</v>
+        <v>1557</v>
       </c>
       <c r="AN18" s="18" t="n">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AO18" s="18" t="n">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AP18" s="18" t="n">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AQ18" s="18" t="n">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AR18" s="18" t="n">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AS18" s="18" t="n">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AT18" s="18" t="n">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AU18" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV18" s="18" t="n">
-        <v>2003</v>
+        <v>1836</v>
       </c>
       <c r="AW18" s="18" t="n">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AX18" s="18" t="n">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AY18" s="18" t="n">
-        <v>883</v>
+        <v>1098</v>
       </c>
       <c r="AZ18" s="18" t="n">
-        <v>1098</v>
+        <v>1366</v>
       </c>
       <c r="BA18" s="18" t="n">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="BB18" s="18" t="n">
-        <v>1372</v>
+        <v>979</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,8 +4647,8 @@
       <c r="Z20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA20" s="13" t="s">
-        <v>58</v>
+      <c r="AA20" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB20" s="13" t="n">
         <v>0</v>
@@ -4659,8 +4659,8 @@
       <c r="AD20" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" s="13" t="n">
-        <v>0</v>
+      <c r="AE20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF20" s="13" t="s">
         <v>58</v>
@@ -4878,17 +4878,17 @@
       <c r="AX21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY21" s="16" t="s">
-        <v>58</v>
+      <c r="AY21" s="16" t="n">
+        <v>2</v>
       </c>
       <c r="AZ21" s="16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BA21" s="16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB21" s="16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,8 +5004,8 @@
       <c r="AM22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="13" t="s">
-        <v>58</v>
+      <c r="AN22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO22" s="13" t="n">
         <v>0</v>
@@ -5038,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="AY22" s="13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AZ22" s="13" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BA22" s="13" t="n">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="BB22" s="13" t="n">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5196,14 +5196,14 @@
       <c r="AX23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY23" s="16" t="s">
-        <v>58</v>
+      <c r="AY23" s="16" t="n">
+        <v>17</v>
       </c>
       <c r="AZ23" s="16" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="BA23" s="16" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="16" t="n">
         <v>0</v>
@@ -5355,17 +5355,17 @@
       <c r="AX24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY24" s="13" t="s">
-        <v>58</v>
+      <c r="AY24" s="13" t="n">
+        <v>22</v>
       </c>
       <c r="AZ24" s="13" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BA24" s="13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,14 +5514,14 @@
       <c r="AX25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY25" s="16" t="s">
-        <v>58</v>
+      <c r="AY25" s="16" t="n">
+        <v>16</v>
       </c>
       <c r="AZ25" s="16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA25" s="16" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BB25" s="16" t="n">
         <v>3</v>
@@ -5672,16 +5672,16 @@
         <v>0</v>
       </c>
       <c r="AY26" s="20" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AZ26" s="20" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BA26" s="20" t="n">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="BB26" s="20" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,8 +5813,8 @@
       <c r="Z28" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA28" s="20" t="s">
-        <v>58</v>
+      <c r="AA28" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB28" s="20" t="n">
         <v>0</v>
@@ -5971,88 +5971,88 @@
         <v>0</v>
       </c>
       <c r="AA29" s="18" t="n">
-        <v>0</v>
+        <v>1666</v>
       </c>
       <c r="AB29" s="18" t="n">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AC29" s="18" t="n">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AD29" s="18" t="n">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AE29" s="18" t="n">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AF29" s="18" t="n">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AG29" s="18" t="n">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AH29" s="18" t="n">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AI29" s="18" t="n">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AJ29" s="18" t="n">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AK29" s="18" t="n">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AL29" s="18" t="n">
-        <v>1628</v>
+        <v>2090</v>
       </c>
       <c r="AM29" s="18" t="n">
-        <v>2090</v>
+        <v>1557</v>
       </c>
       <c r="AN29" s="18" t="n">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AO29" s="18" t="n">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AP29" s="18" t="n">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AQ29" s="18" t="n">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AR29" s="18" t="n">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AS29" s="18" t="n">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AT29" s="18" t="n">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AU29" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV29" s="18" t="n">
-        <v>2003</v>
+        <v>1836</v>
       </c>
       <c r="AW29" s="18" t="n">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AX29" s="18" t="n">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AY29" s="18" t="n">
-        <v>883</v>
+        <v>1189</v>
       </c>
       <c r="AZ29" s="18" t="n">
-        <v>1189</v>
+        <v>1458</v>
       </c>
       <c r="BA29" s="18" t="n">
-        <v>1458</v>
+        <v>1522</v>
       </c>
       <c r="BB29" s="18" t="n">
-        <v>1522</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,44 +6563,44 @@
       <c r="Z36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA36" s="13" t="s">
-        <v>58</v>
+      <c r="AA36" s="13" t="n">
+        <v>2326</v>
       </c>
       <c r="AB36" s="13" t="n">
-        <v>2326</v>
+        <v>2422</v>
       </c>
       <c r="AC36" s="13" t="n">
-        <v>2422</v>
+        <v>2036</v>
       </c>
       <c r="AD36" s="13" t="n">
-        <v>2036</v>
+        <v>536</v>
       </c>
       <c r="AE36" s="13" t="n">
-        <v>536</v>
+        <v>1237</v>
       </c>
       <c r="AF36" s="13" t="n">
-        <v>1237</v>
+        <v>1134</v>
       </c>
       <c r="AG36" s="13" t="n">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="AH36" s="13" t="n">
-        <v>1113</v>
+        <v>1053</v>
       </c>
       <c r="AI36" s="13" t="n">
-        <v>1053</v>
+        <v>1377</v>
       </c>
       <c r="AJ36" s="13" t="n">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="AK36" s="13" t="n">
-        <v>1395</v>
+        <v>1579</v>
       </c>
       <c r="AL36" s="13" t="n">
-        <v>1579</v>
-      </c>
-      <c r="AM36" s="13" t="n">
         <v>1572</v>
+      </c>
+      <c r="AM36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN36" s="13" t="s">
         <v>58</v>
@@ -6794,17 +6794,17 @@
       <c r="AX37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY37" s="16" t="s">
-        <v>58</v>
+      <c r="AY37" s="16" t="n">
+        <v>206</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>223</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,53 +6917,53 @@
       <c r="AL38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM38" s="13" t="s">
-        <v>58</v>
+      <c r="AM38" s="13" t="n">
+        <v>1009</v>
       </c>
       <c r="AN38" s="13" t="n">
-        <v>1009</v>
+        <v>483</v>
       </c>
       <c r="AO38" s="13" t="n">
-        <v>483</v>
+        <v>816</v>
       </c>
       <c r="AP38" s="13" t="n">
-        <v>816</v>
+        <v>1609</v>
       </c>
       <c r="AQ38" s="13" t="n">
-        <v>1609</v>
+        <v>1728</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>1728</v>
+        <v>1278</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>1278</v>
+        <v>1680</v>
       </c>
       <c r="AT38" s="13" t="n">
-        <v>1680</v>
+        <v>1642</v>
       </c>
       <c r="AU38" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV38" s="13" t="n">
-        <v>1642</v>
+        <v>1356</v>
       </c>
       <c r="AW38" s="13" t="n">
-        <v>1356</v>
+        <v>773</v>
       </c>
       <c r="AX38" s="13" t="n">
-        <v>773</v>
+        <v>1488</v>
       </c>
       <c r="AY38" s="13" t="n">
-        <v>1488</v>
+        <v>944</v>
       </c>
       <c r="AZ38" s="13" t="n">
-        <v>944</v>
+        <v>1012</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>991</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7082,17 +7082,17 @@
       <c r="AN39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO39" s="16" t="s">
-        <v>58</v>
+      <c r="AO39" s="16" t="n">
+        <v>248</v>
       </c>
       <c r="AP39" s="16" t="n">
-        <v>248</v>
-      </c>
-      <c r="AQ39" s="16" t="n">
         <v>135</v>
       </c>
-      <c r="AR39" s="16" t="s">
-        <v>58</v>
+      <c r="AQ39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR39" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS39" s="16" t="n">
         <v>0</v>
@@ -7112,8 +7112,8 @@
       <c r="AX39" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY39" s="16" t="n">
-        <v>0</v>
+      <c r="AY39" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ39" s="16" t="s">
         <v>58</v>
@@ -7271,17 +7271,17 @@
       <c r="AX40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY40" s="13" t="s">
-        <v>58</v>
+      <c r="AY40" s="13" t="n">
+        <v>109</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7430,17 +7430,17 @@
       <c r="AX41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY41" s="16" t="s">
-        <v>58</v>
+      <c r="AY41" s="16" t="n">
+        <v>61</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>116</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7589,17 +7589,17 @@
       <c r="AX42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY42" s="13" t="s">
-        <v>58</v>
+      <c r="AY42" s="13" t="n">
+        <v>45</v>
       </c>
       <c r="AZ42" s="13" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="BA42" s="13" t="n">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="BB42" s="13" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,88 +7675,88 @@
         <v>0</v>
       </c>
       <c r="AA43" s="18" t="n">
-        <v>0</v>
+        <v>2326</v>
       </c>
       <c r="AB43" s="18" t="n">
-        <v>2326</v>
+        <v>2422</v>
       </c>
       <c r="AC43" s="18" t="n">
-        <v>2422</v>
+        <v>2036</v>
       </c>
       <c r="AD43" s="18" t="n">
-        <v>2036</v>
+        <v>536</v>
       </c>
       <c r="AE43" s="18" t="n">
-        <v>536</v>
+        <v>1237</v>
       </c>
       <c r="AF43" s="18" t="n">
-        <v>1237</v>
+        <v>1134</v>
       </c>
       <c r="AG43" s="18" t="n">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="AH43" s="18" t="n">
-        <v>1113</v>
+        <v>1053</v>
       </c>
       <c r="AI43" s="18" t="n">
-        <v>1053</v>
+        <v>1377</v>
       </c>
       <c r="AJ43" s="18" t="n">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="AK43" s="18" t="n">
-        <v>1395</v>
+        <v>1579</v>
       </c>
       <c r="AL43" s="18" t="n">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="AM43" s="18" t="n">
-        <v>1572</v>
+        <v>1009</v>
       </c>
       <c r="AN43" s="18" t="n">
-        <v>1009</v>
+        <v>483</v>
       </c>
       <c r="AO43" s="18" t="n">
-        <v>483</v>
+        <v>1064</v>
       </c>
       <c r="AP43" s="18" t="n">
-        <v>1064</v>
+        <v>1744</v>
       </c>
       <c r="AQ43" s="18" t="n">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="AR43" s="18" t="n">
-        <v>1728</v>
+        <v>1278</v>
       </c>
       <c r="AS43" s="18" t="n">
-        <v>1278</v>
+        <v>1680</v>
       </c>
       <c r="AT43" s="18" t="n">
-        <v>1680</v>
+        <v>1642</v>
       </c>
       <c r="AU43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV43" s="18" t="n">
-        <v>1642</v>
+        <v>1356</v>
       </c>
       <c r="AW43" s="18" t="n">
-        <v>1356</v>
+        <v>773</v>
       </c>
       <c r="AX43" s="18" t="n">
-        <v>773</v>
+        <v>1488</v>
       </c>
       <c r="AY43" s="18" t="n">
-        <v>1488</v>
+        <v>1365</v>
       </c>
       <c r="AZ43" s="18" t="n">
-        <v>1365</v>
+        <v>1576</v>
       </c>
       <c r="BA43" s="18" t="n">
-        <v>1576</v>
+        <v>1548</v>
       </c>
       <c r="BB43" s="18" t="n">
-        <v>1548</v>
+        <v>948</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7890,44 +7890,44 @@
       <c r="Z45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA45" s="13" t="s">
-        <v>58</v>
+      <c r="AA45" s="13" t="n">
+        <v>175</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>563</v>
-      </c>
-      <c r="AM45" s="13" t="n">
         <v>629</v>
+      </c>
+      <c r="AM45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN45" s="13" t="s">
         <v>58</v>
@@ -8121,17 +8121,17 @@
       <c r="AX46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY46" s="16" t="s">
-        <v>58</v>
+      <c r="AY46" s="16" t="n">
+        <v>2</v>
       </c>
       <c r="AZ46" s="16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BA46" s="16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB46" s="16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8244,53 +8244,53 @@
       <c r="AL47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM47" s="13" t="s">
-        <v>58</v>
+      <c r="AM47" s="13" t="n">
+        <v>493</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>493</v>
+        <v>423</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>423</v>
+        <v>205</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="AU47" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8439,14 +8439,14 @@
       <c r="AX48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY48" s="16" t="s">
-        <v>58</v>
+      <c r="AY48" s="16" t="n">
+        <v>17</v>
       </c>
       <c r="AZ48" s="16" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="BA48" s="16" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="16" t="n">
         <v>0</v>
@@ -8598,17 +8598,17 @@
       <c r="AX49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY49" s="13" t="s">
-        <v>58</v>
+      <c r="AY49" s="13" t="n">
+        <v>22</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8757,14 +8757,14 @@
       <c r="AX50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY50" s="16" t="s">
-        <v>58</v>
+      <c r="AY50" s="16" t="n">
+        <v>16</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BB50" s="16" t="n">
         <v>3</v>
@@ -8843,88 +8843,88 @@
         <v>0</v>
       </c>
       <c r="AA51" s="20" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AB51" s="20" t="n">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="AC51" s="20" t="n">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="AD51" s="20" t="n">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="AE51" s="20" t="n">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="AF51" s="20" t="n">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="AG51" s="20" t="n">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="AH51" s="20" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AI51" s="20" t="n">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="AJ51" s="20" t="n">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="AK51" s="20" t="n">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="AL51" s="20" t="n">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="AM51" s="20" t="n">
-        <v>629</v>
+        <v>493</v>
       </c>
       <c r="AN51" s="20" t="n">
-        <v>493</v>
+        <v>423</v>
       </c>
       <c r="AO51" s="20" t="n">
-        <v>423</v>
+        <v>205</v>
       </c>
       <c r="AP51" s="20" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AQ51" s="20" t="n">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="AR51" s="20" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AS51" s="20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT51" s="20" t="n">
+        <v>144</v>
+      </c>
+      <c r="AU51" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" s="20" t="n">
+        <v>222</v>
+      </c>
+      <c r="AW51" s="20" t="n">
+        <v>154</v>
+      </c>
+      <c r="AX51" s="20" t="n">
+        <v>121</v>
+      </c>
+      <c r="AY51" s="20" t="n">
+        <v>91</v>
+      </c>
+      <c r="AZ51" s="20" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA51" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="AT51" s="20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AU51" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV51" s="20" t="n">
-        <v>144</v>
-      </c>
-      <c r="AW51" s="20" t="n">
-        <v>222</v>
-      </c>
-      <c r="AX51" s="20" t="n">
-        <v>154</v>
-      </c>
-      <c r="AY51" s="20" t="n">
-        <v>121</v>
-      </c>
-      <c r="AZ51" s="20" t="n">
-        <v>91</v>
-      </c>
-      <c r="BA51" s="20" t="n">
-        <v>92</v>
-      </c>
       <c r="BB51" s="20" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9056,8 +9056,8 @@
       <c r="Z53" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA53" s="20" t="s">
-        <v>58</v>
+      <c r="AA53" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB53" s="20" t="n">
         <v>0</v>
@@ -9272,44 +9272,44 @@
       <c r="Z55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA55" s="13" t="s">
-        <v>58</v>
+      <c r="AA55" s="13" t="n">
+        <v>-35</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>-35</v>
+        <v>-68</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>-68</v>
+        <v>-78</v>
       </c>
       <c r="AD55" s="13" t="n">
-        <v>-78</v>
+        <v>-18</v>
       </c>
       <c r="AE55" s="13" t="n">
-        <v>-18</v>
+        <v>-95</v>
       </c>
       <c r="AF55" s="13" t="n">
-        <v>-95</v>
+        <v>-32</v>
       </c>
       <c r="AG55" s="13" t="n">
-        <v>-32</v>
+        <v>-15</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>-15</v>
+        <v>-37</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>-37</v>
+        <v>-19</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>-19</v>
+        <v>-185</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>-185</v>
+        <v>-43</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>-43</v>
-      </c>
-      <c r="AM55" s="13" t="n">
         <v>-71</v>
+      </c>
+      <c r="AM55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN55" s="13" t="s">
         <v>58</v>
@@ -9467,53 +9467,53 @@
       <c r="AL56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM56" s="16" t="s">
-        <v>58</v>
+      <c r="AM56" s="16" t="n">
+        <v>-31</v>
       </c>
       <c r="AN56" s="16" t="n">
-        <v>-31</v>
+        <v>-43</v>
       </c>
       <c r="AO56" s="16" t="n">
-        <v>-43</v>
+        <v>-16</v>
       </c>
       <c r="AP56" s="16" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AQ56" s="16" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AR56" s="16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AS56" s="16" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AT56" s="16" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AU56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV56" s="16" t="n">
         <v>-16</v>
       </c>
-      <c r="AQ56" s="16" t="n">
-        <v>-35</v>
-      </c>
-      <c r="AR56" s="16" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AS56" s="16" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AT56" s="16" t="n">
-        <v>-24</v>
-      </c>
-      <c r="AU56" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV56" s="16" t="n">
-        <v>-8</v>
-      </c>
       <c r="AW56" s="16" t="n">
-        <v>-16</v>
+        <v>-112</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>-112</v>
+        <v>-99</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>-99</v>
+        <v>-144</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>-144</v>
+        <v>-163</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>-163</v>
+        <v>-120</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>-120</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9588,89 +9588,89 @@
       <c r="Z57" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA57" s="20" t="s">
-        <v>58</v>
+      <c r="AA57" s="20" t="n">
+        <v>-35</v>
       </c>
       <c r="AB57" s="20" t="n">
+        <v>-68</v>
+      </c>
+      <c r="AC57" s="20" t="n">
+        <v>-78</v>
+      </c>
+      <c r="AD57" s="20" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AE57" s="20" t="n">
+        <v>-95</v>
+      </c>
+      <c r="AF57" s="20" t="n">
+        <v>-32</v>
+      </c>
+      <c r="AG57" s="20" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AH57" s="20" t="n">
+        <v>-37</v>
+      </c>
+      <c r="AI57" s="20" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AJ57" s="20" t="n">
+        <v>-185</v>
+      </c>
+      <c r="AK57" s="20" t="n">
+        <v>-43</v>
+      </c>
+      <c r="AL57" s="20" t="n">
+        <v>-71</v>
+      </c>
+      <c r="AM57" s="20" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AN57" s="20" t="n">
+        <v>-43</v>
+      </c>
+      <c r="AO57" s="20" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AP57" s="20" t="n">
         <v>-35</v>
       </c>
-      <c r="AC57" s="20" t="n">
-        <v>-68</v>
-      </c>
-      <c r="AD57" s="20" t="n">
-        <v>-78</v>
-      </c>
-      <c r="AE57" s="20" t="n">
-        <v>-18</v>
-      </c>
-      <c r="AF57" s="20" t="n">
-        <v>-95</v>
-      </c>
-      <c r="AG57" s="20" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AH57" s="20" t="n">
+      <c r="AQ57" s="20" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AR57" s="20" t="n">
         <v>-15</v>
       </c>
-      <c r="AI57" s="20" t="n">
-        <v>-37</v>
-      </c>
-      <c r="AJ57" s="20" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AK57" s="20" t="n">
-        <v>-185</v>
-      </c>
-      <c r="AL57" s="20" t="n">
-        <v>-43</v>
-      </c>
-      <c r="AM57" s="20" t="n">
-        <v>-71</v>
-      </c>
-      <c r="AN57" s="20" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AO57" s="20" t="n">
-        <v>-43</v>
-      </c>
-      <c r="AP57" s="20" t="n">
+      <c r="AS57" s="20" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AT57" s="20" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AU57" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV57" s="20" t="n">
         <v>-16</v>
       </c>
-      <c r="AQ57" s="20" t="n">
-        <v>-35</v>
-      </c>
-      <c r="AR57" s="20" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AS57" s="20" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AT57" s="20" t="n">
-        <v>-24</v>
-      </c>
-      <c r="AU57" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV57" s="20" t="n">
-        <v>-8</v>
-      </c>
       <c r="AW57" s="20" t="n">
-        <v>-16</v>
+        <v>-112</v>
       </c>
       <c r="AX57" s="20" t="n">
-        <v>-112</v>
+        <v>-99</v>
       </c>
       <c r="AY57" s="20" t="n">
-        <v>-99</v>
+        <v>-144</v>
       </c>
       <c r="AZ57" s="20" t="n">
-        <v>-144</v>
+        <v>-163</v>
       </c>
       <c r="BA57" s="20" t="n">
-        <v>-163</v>
+        <v>-120</v>
       </c>
       <c r="BB57" s="20" t="n">
-        <v>-120</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9746,88 +9746,88 @@
         <v>0</v>
       </c>
       <c r="AA58" s="18" t="n">
-        <v>0</v>
+        <v>2466</v>
       </c>
       <c r="AB58" s="18" t="n">
-        <v>2466</v>
+        <v>2732</v>
       </c>
       <c r="AC58" s="18" t="n">
-        <v>2732</v>
+        <v>2171</v>
       </c>
       <c r="AD58" s="18" t="n">
-        <v>2171</v>
+        <v>576</v>
       </c>
       <c r="AE58" s="18" t="n">
-        <v>576</v>
+        <v>1376</v>
       </c>
       <c r="AF58" s="18" t="n">
-        <v>1376</v>
+        <v>1491</v>
       </c>
       <c r="AG58" s="18" t="n">
-        <v>1491</v>
+        <v>1386</v>
       </c>
       <c r="AH58" s="18" t="n">
-        <v>1386</v>
+        <v>1309</v>
       </c>
       <c r="AI58" s="18" t="n">
-        <v>1309</v>
+        <v>1730</v>
       </c>
       <c r="AJ58" s="18" t="n">
-        <v>1730</v>
+        <v>1452</v>
       </c>
       <c r="AK58" s="18" t="n">
-        <v>1452</v>
+        <v>2099</v>
       </c>
       <c r="AL58" s="18" t="n">
-        <v>2099</v>
+        <v>2130</v>
       </c>
       <c r="AM58" s="18" t="n">
-        <v>2130</v>
+        <v>1471</v>
       </c>
       <c r="AN58" s="18" t="n">
-        <v>1471</v>
+        <v>863</v>
       </c>
       <c r="AO58" s="18" t="n">
-        <v>863</v>
+        <v>1253</v>
       </c>
       <c r="AP58" s="18" t="n">
-        <v>1253</v>
+        <v>1909</v>
       </c>
       <c r="AQ58" s="18" t="n">
-        <v>1909</v>
+        <v>1769</v>
       </c>
       <c r="AR58" s="18" t="n">
-        <v>1769</v>
+        <v>1413</v>
       </c>
       <c r="AS58" s="18" t="n">
-        <v>1413</v>
+        <v>1757</v>
       </c>
       <c r="AT58" s="18" t="n">
-        <v>1757</v>
+        <v>1778</v>
       </c>
       <c r="AU58" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV58" s="18" t="n">
-        <v>1778</v>
+        <v>1562</v>
       </c>
       <c r="AW58" s="18" t="n">
-        <v>1562</v>
+        <v>815</v>
       </c>
       <c r="AX58" s="18" t="n">
-        <v>815</v>
+        <v>1510</v>
       </c>
       <c r="AY58" s="18" t="n">
-        <v>1510</v>
+        <v>1312</v>
       </c>
       <c r="AZ58" s="18" t="n">
-        <v>1312</v>
+        <v>1505</v>
       </c>
       <c r="BA58" s="18" t="n">
-        <v>1505</v>
+        <v>1578</v>
       </c>
       <c r="BB58" s="18" t="n">
-        <v>1578</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10338,44 +10338,44 @@
       <c r="Z65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA65" s="13" t="s">
-        <v>58</v>
+      <c r="AA65" s="13" t="n">
+        <v>591875</v>
       </c>
       <c r="AB65" s="13" t="n">
-        <v>591875</v>
+        <v>667102</v>
       </c>
       <c r="AC65" s="13" t="n">
-        <v>667102</v>
+        <v>505301</v>
       </c>
       <c r="AD65" s="13" t="n">
-        <v>505301</v>
+        <v>148315</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>148315</v>
+        <v>347518</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>347518</v>
+        <v>351026</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>351026</v>
+        <v>371688</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>371688</v>
+        <v>361152</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>361152</v>
+        <v>512244</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>512244</v>
+        <v>582123</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>582123</v>
+        <v>693489</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>693489</v>
-      </c>
-      <c r="AM65" s="13" t="n">
         <v>710772</v>
+      </c>
+      <c r="AM65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN65" s="13" t="s">
         <v>58</v>
@@ -10569,17 +10569,17 @@
       <c r="AX66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY66" s="16" t="s">
-        <v>58</v>
+      <c r="AY66" s="16" t="n">
+        <v>187240</v>
       </c>
       <c r="AZ66" s="16" t="n">
-        <v>187240</v>
+        <v>206979</v>
       </c>
       <c r="BA66" s="16" t="n">
-        <v>206979</v>
+        <v>216042</v>
       </c>
       <c r="BB66" s="16" t="n">
-        <v>216042</v>
+        <v>138580</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10692,53 +10692,53 @@
       <c r="AL67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM67" s="13" t="s">
-        <v>58</v>
+      <c r="AM67" s="13" t="n">
+        <v>485675</v>
       </c>
       <c r="AN67" s="13" t="n">
-        <v>485675</v>
+        <v>263119</v>
       </c>
       <c r="AO67" s="13" t="n">
-        <v>263119</v>
+        <v>453624</v>
       </c>
       <c r="AP67" s="13" t="n">
-        <v>453624</v>
+        <v>921107</v>
       </c>
       <c r="AQ67" s="13" t="n">
-        <v>921107</v>
+        <v>1333862</v>
       </c>
       <c r="AR67" s="13" t="n">
-        <v>1333862</v>
+        <v>1030117</v>
       </c>
       <c r="AS67" s="13" t="n">
-        <v>1030117</v>
+        <v>1392106</v>
       </c>
       <c r="AT67" s="13" t="n">
-        <v>1392106</v>
+        <v>1357789</v>
       </c>
       <c r="AU67" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV67" s="13" t="n">
-        <v>1357789</v>
+        <v>1131064</v>
       </c>
       <c r="AW67" s="13" t="n">
-        <v>1131064</v>
+        <v>625828</v>
       </c>
       <c r="AX67" s="13" t="n">
-        <v>625828</v>
+        <v>1245000</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>1245000</v>
+        <v>792276</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>792276</v>
+        <v>821494</v>
       </c>
       <c r="BA67" s="13" t="n">
-        <v>821494</v>
+        <v>798659</v>
       </c>
       <c r="BB67" s="13" t="n">
-        <v>798659</v>
+        <v>571636</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10857,17 +10857,17 @@
       <c r="AN68" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO68" s="16" t="s">
-        <v>58</v>
+      <c r="AO68" s="16" t="n">
+        <v>196456</v>
       </c>
       <c r="AP68" s="16" t="n">
-        <v>196456</v>
-      </c>
-      <c r="AQ68" s="16" t="n">
         <v>108065</v>
       </c>
-      <c r="AR68" s="16" t="s">
-        <v>58</v>
+      <c r="AQ68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR68" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS68" s="16" t="n">
         <v>0</v>
@@ -10887,8 +10887,8 @@
       <c r="AX68" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY68" s="16" t="n">
-        <v>0</v>
+      <c r="AY68" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ68" s="16" t="s">
         <v>58</v>
@@ -11046,17 +11046,17 @@
       <c r="AX69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY69" s="13" t="s">
-        <v>58</v>
+      <c r="AY69" s="13" t="n">
+        <v>96003</v>
       </c>
       <c r="AZ69" s="13" t="n">
-        <v>96003</v>
+        <v>156584</v>
       </c>
       <c r="BA69" s="13" t="n">
-        <v>156584</v>
+        <v>111262</v>
       </c>
       <c r="BB69" s="13" t="n">
-        <v>111262</v>
+        <v>114707</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,17 +11205,17 @@
       <c r="AX70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY70" s="16" t="s">
-        <v>58</v>
+      <c r="AY70" s="16" t="n">
+        <v>47206</v>
       </c>
       <c r="AZ70" s="16" t="n">
-        <v>47206</v>
+        <v>69078</v>
       </c>
       <c r="BA70" s="16" t="n">
-        <v>69078</v>
+        <v>89537</v>
       </c>
       <c r="BB70" s="16" t="n">
-        <v>89537</v>
+        <v>26741</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11364,17 +11364,17 @@
       <c r="AX71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY71" s="13" t="s">
-        <v>58</v>
+      <c r="AY71" s="13" t="n">
+        <v>24820</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>24820</v>
+        <v>34139</v>
       </c>
       <c r="BA71" s="13" t="n">
-        <v>34139</v>
+        <v>43850</v>
       </c>
       <c r="BB71" s="13" t="n">
-        <v>43850</v>
+        <v>34150</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11450,88 +11450,88 @@
         <v>0</v>
       </c>
       <c r="AA72" s="18" t="n">
-        <v>0</v>
+        <v>591875</v>
       </c>
       <c r="AB72" s="18" t="n">
-        <v>591875</v>
+        <v>667102</v>
       </c>
       <c r="AC72" s="18" t="n">
-        <v>667102</v>
+        <v>505301</v>
       </c>
       <c r="AD72" s="18" t="n">
-        <v>505301</v>
+        <v>148315</v>
       </c>
       <c r="AE72" s="18" t="n">
-        <v>148315</v>
+        <v>347518</v>
       </c>
       <c r="AF72" s="18" t="n">
-        <v>347518</v>
+        <v>351026</v>
       </c>
       <c r="AG72" s="18" t="n">
-        <v>351026</v>
+        <v>371688</v>
       </c>
       <c r="AH72" s="18" t="n">
-        <v>371688</v>
+        <v>361152</v>
       </c>
       <c r="AI72" s="18" t="n">
-        <v>361152</v>
+        <v>512244</v>
       </c>
       <c r="AJ72" s="18" t="n">
-        <v>512244</v>
+        <v>582123</v>
       </c>
       <c r="AK72" s="18" t="n">
-        <v>582123</v>
+        <v>693489</v>
       </c>
       <c r="AL72" s="18" t="n">
-        <v>693489</v>
+        <v>710772</v>
       </c>
       <c r="AM72" s="18" t="n">
-        <v>710772</v>
+        <v>485675</v>
       </c>
       <c r="AN72" s="18" t="n">
-        <v>485675</v>
+        <v>263119</v>
       </c>
       <c r="AO72" s="18" t="n">
-        <v>263119</v>
+        <v>650080</v>
       </c>
       <c r="AP72" s="18" t="n">
-        <v>650080</v>
+        <v>1029172</v>
       </c>
       <c r="AQ72" s="18" t="n">
-        <v>1029172</v>
+        <v>1333862</v>
       </c>
       <c r="AR72" s="18" t="n">
-        <v>1333862</v>
+        <v>1030117</v>
       </c>
       <c r="AS72" s="18" t="n">
-        <v>1030117</v>
+        <v>1392106</v>
       </c>
       <c r="AT72" s="18" t="n">
-        <v>1392106</v>
+        <v>1357789</v>
       </c>
       <c r="AU72" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV72" s="18" t="n">
-        <v>1357789</v>
+        <v>1131064</v>
       </c>
       <c r="AW72" s="18" t="n">
-        <v>1131064</v>
+        <v>625828</v>
       </c>
       <c r="AX72" s="18" t="n">
-        <v>625828</v>
+        <v>1245000</v>
       </c>
       <c r="AY72" s="18" t="n">
-        <v>1245000</v>
+        <v>1147545</v>
       </c>
       <c r="AZ72" s="18" t="n">
-        <v>1147545</v>
+        <v>1288274</v>
       </c>
       <c r="BA72" s="18" t="n">
-        <v>1288274</v>
+        <v>1259350</v>
       </c>
       <c r="BB72" s="18" t="n">
-        <v>1259350</v>
+        <v>885814</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11665,44 +11665,44 @@
       <c r="Z74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA74" s="13" t="s">
-        <v>58</v>
+      <c r="AA74" s="13" t="n">
+        <v>41464</v>
       </c>
       <c r="AB74" s="13" t="n">
-        <v>41464</v>
+        <v>88696</v>
       </c>
       <c r="AC74" s="13" t="n">
-        <v>88696</v>
+        <v>47391</v>
       </c>
       <c r="AD74" s="13" t="n">
-        <v>47391</v>
+        <v>14081</v>
       </c>
       <c r="AE74" s="13" t="n">
-        <v>14081</v>
+        <v>45181</v>
       </c>
       <c r="AF74" s="13" t="n">
-        <v>45181</v>
+        <v>80071</v>
       </c>
       <c r="AG74" s="13" t="n">
-        <v>80071</v>
+        <v>66086</v>
       </c>
       <c r="AH74" s="13" t="n">
-        <v>66086</v>
+        <v>75454</v>
       </c>
       <c r="AI74" s="13" t="n">
-        <v>75454</v>
+        <v>94515</v>
       </c>
       <c r="AJ74" s="13" t="n">
-        <v>94515</v>
+        <v>62825</v>
       </c>
       <c r="AK74" s="13" t="n">
-        <v>62825</v>
+        <v>146157</v>
       </c>
       <c r="AL74" s="13" t="n">
-        <v>146157</v>
-      </c>
-      <c r="AM74" s="13" t="n">
         <v>171794</v>
+      </c>
+      <c r="AM74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN74" s="13" t="s">
         <v>58</v>
@@ -11896,17 +11896,17 @@
       <c r="AX75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY75" s="16" t="s">
-        <v>58</v>
+      <c r="AY75" s="16" t="n">
+        <v>1020</v>
       </c>
       <c r="AZ75" s="16" t="n">
-        <v>1020</v>
+        <v>4107</v>
       </c>
       <c r="BA75" s="16" t="n">
-        <v>4107</v>
+        <v>6160</v>
       </c>
       <c r="BB75" s="16" t="n">
-        <v>6160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12019,53 +12019,53 @@
       <c r="AL76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM76" s="13" t="s">
-        <v>58</v>
+      <c r="AM76" s="13" t="n">
+        <v>138049</v>
       </c>
       <c r="AN76" s="13" t="n">
-        <v>138049</v>
+        <v>120836</v>
       </c>
       <c r="AO76" s="13" t="n">
-        <v>120836</v>
+        <v>56618</v>
       </c>
       <c r="AP76" s="13" t="n">
-        <v>56618</v>
+        <v>68598</v>
       </c>
       <c r="AQ76" s="13" t="n">
-        <v>68598</v>
+        <v>29879</v>
       </c>
       <c r="AR76" s="13" t="n">
-        <v>29879</v>
+        <v>78171</v>
       </c>
       <c r="AS76" s="13" t="n">
-        <v>78171</v>
+        <v>52986</v>
       </c>
       <c r="AT76" s="13" t="n">
-        <v>52986</v>
+        <v>77146</v>
       </c>
       <c r="AU76" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV76" s="13" t="n">
-        <v>77146</v>
+        <v>124026</v>
       </c>
       <c r="AW76" s="13" t="n">
-        <v>124026</v>
+        <v>75545</v>
       </c>
       <c r="AX76" s="13" t="n">
-        <v>75545</v>
+        <v>62002</v>
       </c>
       <c r="AY76" s="13" t="n">
-        <v>62002</v>
+        <v>22393</v>
       </c>
       <c r="AZ76" s="13" t="n">
-        <v>22393</v>
+        <v>17037</v>
       </c>
       <c r="BA76" s="13" t="n">
-        <v>17037</v>
+        <v>75029</v>
       </c>
       <c r="BB76" s="13" t="n">
-        <v>75029</v>
+        <v>61722</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12214,14 +12214,14 @@
       <c r="AX77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY77" s="16" t="s">
-        <v>58</v>
+      <c r="AY77" s="16" t="n">
+        <v>10204</v>
       </c>
       <c r="AZ77" s="16" t="n">
-        <v>10204</v>
+        <v>17196</v>
       </c>
       <c r="BA77" s="16" t="n">
-        <v>17196</v>
+        <v>0</v>
       </c>
       <c r="BB77" s="16" t="n">
         <v>0</v>
@@ -12373,17 +12373,17 @@
       <c r="AX78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY78" s="13" t="s">
-        <v>58</v>
+      <c r="AY78" s="13" t="n">
+        <v>13796</v>
       </c>
       <c r="AZ78" s="13" t="n">
-        <v>13796</v>
+        <v>3635</v>
       </c>
       <c r="BA78" s="13" t="n">
-        <v>3635</v>
+        <v>151</v>
       </c>
       <c r="BB78" s="13" t="n">
-        <v>151</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12532,17 +12532,17 @@
       <c r="AX79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY79" s="16" t="s">
-        <v>58</v>
+      <c r="AY79" s="16" t="n">
+        <v>9020</v>
       </c>
       <c r="AZ79" s="16" t="n">
-        <v>9020</v>
+        <v>10171</v>
       </c>
       <c r="BA79" s="16" t="n">
-        <v>10171</v>
+        <v>2300</v>
       </c>
       <c r="BB79" s="16" t="n">
-        <v>2300</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12618,88 +12618,88 @@
         <v>0</v>
       </c>
       <c r="AA80" s="20" t="n">
-        <v>0</v>
+        <v>41464</v>
       </c>
       <c r="AB80" s="20" t="n">
-        <v>41464</v>
+        <v>88696</v>
       </c>
       <c r="AC80" s="20" t="n">
-        <v>88696</v>
+        <v>47391</v>
       </c>
       <c r="AD80" s="20" t="n">
-        <v>47391</v>
+        <v>14081</v>
       </c>
       <c r="AE80" s="20" t="n">
-        <v>14081</v>
+        <v>45181</v>
       </c>
       <c r="AF80" s="20" t="n">
-        <v>45181</v>
+        <v>80071</v>
       </c>
       <c r="AG80" s="20" t="n">
-        <v>80071</v>
+        <v>66086</v>
       </c>
       <c r="AH80" s="20" t="n">
-        <v>66086</v>
+        <v>75454</v>
       </c>
       <c r="AI80" s="20" t="n">
-        <v>75454</v>
+        <v>94515</v>
       </c>
       <c r="AJ80" s="20" t="n">
-        <v>94515</v>
+        <v>62825</v>
       </c>
       <c r="AK80" s="20" t="n">
-        <v>62825</v>
+        <v>146157</v>
       </c>
       <c r="AL80" s="20" t="n">
-        <v>146157</v>
+        <v>171794</v>
       </c>
       <c r="AM80" s="20" t="n">
-        <v>171794</v>
+        <v>138049</v>
       </c>
       <c r="AN80" s="20" t="n">
-        <v>138049</v>
+        <v>120836</v>
       </c>
       <c r="AO80" s="20" t="n">
-        <v>120836</v>
+        <v>56618</v>
       </c>
       <c r="AP80" s="20" t="n">
-        <v>56618</v>
+        <v>68598</v>
       </c>
       <c r="AQ80" s="20" t="n">
-        <v>68598</v>
+        <v>29879</v>
       </c>
       <c r="AR80" s="20" t="n">
-        <v>29879</v>
+        <v>78171</v>
       </c>
       <c r="AS80" s="20" t="n">
-        <v>78171</v>
+        <v>52986</v>
       </c>
       <c r="AT80" s="20" t="n">
-        <v>52986</v>
+        <v>77146</v>
       </c>
       <c r="AU80" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AV80" s="20" t="n">
-        <v>77146</v>
+        <v>124026</v>
       </c>
       <c r="AW80" s="20" t="n">
-        <v>124026</v>
+        <v>75545</v>
       </c>
       <c r="AX80" s="20" t="n">
-        <v>75545</v>
+        <v>62002</v>
       </c>
       <c r="AY80" s="20" t="n">
-        <v>62002</v>
+        <v>56433</v>
       </c>
       <c r="AZ80" s="20" t="n">
-        <v>56433</v>
+        <v>52146</v>
       </c>
       <c r="BA80" s="20" t="n">
-        <v>52146</v>
+        <v>83640</v>
       </c>
       <c r="BB80" s="20" t="n">
-        <v>83640</v>
+        <v>69466</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12833,8 +12833,8 @@
       <c r="Z82" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA82" s="20" t="s">
-        <v>58</v>
+      <c r="AA82" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB82" s="23" t="n">
         <v>0</v>
@@ -13049,44 +13049,44 @@
       <c r="Z84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA84" s="13" t="s">
-        <v>58</v>
+      <c r="AA84" s="13" t="n">
+        <v>-8958</v>
       </c>
       <c r="AB84" s="13" t="n">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AC84" s="13" t="n">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AD84" s="13" t="n">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AE84" s="13" t="n">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AF84" s="13" t="n">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AG84" s="13" t="n">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AH84" s="13" t="n">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AI84" s="13" t="n">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AJ84" s="13" t="n">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AK84" s="13" t="n">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AL84" s="13" t="n">
-        <v>-18062</v>
-      </c>
-      <c r="AM84" s="13" t="n">
         <v>-25646</v>
+      </c>
+      <c r="AM84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN84" s="13" t="s">
         <v>58</v>
@@ -13244,53 +13244,53 @@
       <c r="AL85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM85" s="16" t="s">
-        <v>58</v>
+      <c r="AM85" s="16" t="n">
+        <v>-11135</v>
       </c>
       <c r="AN85" s="16" t="n">
-        <v>-11135</v>
+        <v>-20214</v>
       </c>
       <c r="AO85" s="16" t="n">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AP85" s="16" t="n">
-        <v>-8563</v>
+        <v>-19667</v>
       </c>
       <c r="AQ85" s="16" t="n">
-        <v>-19667</v>
+        <v>-16756</v>
       </c>
       <c r="AR85" s="16" t="n">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AS85" s="16" t="n">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AT85" s="16" t="n">
-        <v>-20516</v>
+        <v>-8303</v>
       </c>
       <c r="AU85" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AV85" s="16" t="n">
-        <v>-8303</v>
+        <v>-13644</v>
       </c>
       <c r="AW85" s="16" t="n">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="AX85" s="16" t="n">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
       <c r="AY85" s="16" t="n">
-        <v>-77235</v>
+        <v>-128272</v>
       </c>
       <c r="AZ85" s="16" t="n">
-        <v>-128272</v>
+        <v>-139313</v>
       </c>
       <c r="BA85" s="16" t="n">
-        <v>-139313</v>
+        <v>-99587</v>
       </c>
       <c r="BB85" s="16" t="n">
-        <v>-99587</v>
+        <v>-38900</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13367,89 +13367,89 @@
       <c r="Z86" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA86" s="20" t="s">
-        <v>58</v>
+      <c r="AA86" s="23" t="n">
+        <v>-8958</v>
       </c>
       <c r="AB86" s="23" t="n">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AC86" s="23" t="n">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AD86" s="23" t="n">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AE86" s="23" t="n">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AF86" s="23" t="n">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AG86" s="23" t="n">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AH86" s="23" t="n">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AI86" s="23" t="n">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AJ86" s="23" t="n">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AK86" s="23" t="n">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AL86" s="23" t="n">
-        <v>-18062</v>
+        <v>-25646</v>
       </c>
       <c r="AM86" s="23" t="n">
-        <v>-25646</v>
+        <v>-11135</v>
       </c>
       <c r="AN86" s="23" t="n">
-        <v>-11135</v>
+        <v>-20214</v>
       </c>
       <c r="AO86" s="23" t="n">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AP86" s="23" t="n">
-        <v>-8563</v>
+        <v>-19667</v>
       </c>
       <c r="AQ86" s="23" t="n">
-        <v>-19667</v>
+        <v>-16756</v>
       </c>
       <c r="AR86" s="23" t="n">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AS86" s="23" t="n">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AT86" s="23" t="n">
-        <v>-20516</v>
+        <v>-8303</v>
       </c>
       <c r="AU86" s="20" t="s">
         <v>58</v>
       </c>
       <c r="AV86" s="23" t="n">
-        <v>-8303</v>
+        <v>-13644</v>
       </c>
       <c r="AW86" s="23" t="n">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="AX86" s="23" t="n">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
       <c r="AY86" s="23" t="n">
-        <v>-77235</v>
+        <v>-128272</v>
       </c>
       <c r="AZ86" s="23" t="n">
-        <v>-128272</v>
+        <v>-139313</v>
       </c>
       <c r="BA86" s="23" t="n">
-        <v>-139313</v>
+        <v>-99587</v>
       </c>
       <c r="BB86" s="23" t="n">
-        <v>-99587</v>
+        <v>-38900</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13583,89 +13583,89 @@
       <c r="Z88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA88" s="13" t="s">
-        <v>58</v>
+      <c r="AA88" s="13" t="n">
+        <v>-72004</v>
       </c>
       <c r="AB88" s="13" t="n">
-        <v>-72004</v>
+        <v>-31609</v>
       </c>
       <c r="AC88" s="13" t="n">
-        <v>-31609</v>
+        <v>-65563</v>
       </c>
       <c r="AD88" s="13" t="n">
-        <v>-65563</v>
+        <v>-6327</v>
       </c>
       <c r="AE88" s="13" t="n">
-        <v>-6327</v>
+        <v>-50592</v>
       </c>
       <c r="AF88" s="13" t="n">
-        <v>-50592</v>
+        <v>-33987</v>
       </c>
       <c r="AG88" s="13" t="n">
-        <v>-33987</v>
+        <v>-17116</v>
       </c>
       <c r="AH88" s="13" t="n">
-        <v>-17116</v>
+        <v>-15914</v>
       </c>
       <c r="AI88" s="13" t="n">
-        <v>-15914</v>
+        <v>-24884</v>
       </c>
       <c r="AJ88" s="13" t="n">
-        <v>-24884</v>
+        <v>-26636</v>
       </c>
       <c r="AK88" s="13" t="n">
-        <v>-26636</v>
+        <v>-41158</v>
       </c>
       <c r="AL88" s="13" t="n">
-        <v>-41158</v>
+        <v>-49124</v>
       </c>
       <c r="AM88" s="13" t="n">
-        <v>-49124</v>
+        <v>-44815</v>
       </c>
       <c r="AN88" s="13" t="n">
-        <v>-44815</v>
+        <v>-6319</v>
       </c>
       <c r="AO88" s="13" t="n">
-        <v>-6319</v>
+        <v>-9993</v>
       </c>
       <c r="AP88" s="13" t="n">
-        <v>-9993</v>
+        <v>-19062</v>
       </c>
       <c r="AQ88" s="13" t="n">
-        <v>-19062</v>
+        <v>-25829</v>
       </c>
       <c r="AR88" s="13" t="n">
-        <v>-25829</v>
+        <v>-22942</v>
       </c>
       <c r="AS88" s="13" t="n">
-        <v>-22942</v>
+        <v>-31897</v>
       </c>
       <c r="AT88" s="13" t="n">
-        <v>-31897</v>
+        <v>-25389</v>
       </c>
       <c r="AU88" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV88" s="13" t="n">
-        <v>-25389</v>
+        <v>-30640</v>
       </c>
       <c r="AW88" s="13" t="n">
-        <v>-30640</v>
+        <v>-12646</v>
       </c>
       <c r="AX88" s="13" t="n">
-        <v>-12646</v>
+        <v>-26022</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>-26022</v>
+        <v>-24120</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>-24120</v>
+        <v>-22557</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>-22557</v>
+        <v>-24119</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>-24119</v>
+        <v>-23948</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13741,88 +13741,88 @@
         <v>0</v>
       </c>
       <c r="AA89" s="18" t="n">
-        <v>0</v>
+        <v>552377</v>
       </c>
       <c r="AB89" s="18" t="n">
-        <v>552377</v>
+        <v>706952</v>
       </c>
       <c r="AC89" s="18" t="n">
-        <v>706952</v>
+        <v>465609</v>
       </c>
       <c r="AD89" s="18" t="n">
-        <v>465609</v>
+        <v>150097</v>
       </c>
       <c r="AE89" s="18" t="n">
-        <v>150097</v>
+        <v>315345</v>
       </c>
       <c r="AF89" s="18" t="n">
-        <v>315345</v>
+        <v>388458</v>
       </c>
       <c r="AG89" s="18" t="n">
-        <v>388458</v>
+        <v>416403</v>
       </c>
       <c r="AH89" s="18" t="n">
-        <v>416403</v>
+        <v>408971</v>
       </c>
       <c r="AI89" s="18" t="n">
-        <v>408971</v>
+        <v>575619</v>
       </c>
       <c r="AJ89" s="18" t="n">
-        <v>575619</v>
+        <v>571526</v>
       </c>
       <c r="AK89" s="18" t="n">
-        <v>571526</v>
+        <v>780426</v>
       </c>
       <c r="AL89" s="18" t="n">
-        <v>780426</v>
+        <v>807796</v>
       </c>
       <c r="AM89" s="18" t="n">
-        <v>807796</v>
+        <v>567774</v>
       </c>
       <c r="AN89" s="18" t="n">
-        <v>567774</v>
+        <v>357422</v>
       </c>
       <c r="AO89" s="18" t="n">
-        <v>357422</v>
+        <v>688142</v>
       </c>
       <c r="AP89" s="18" t="n">
-        <v>688142</v>
+        <v>1059041</v>
       </c>
       <c r="AQ89" s="18" t="n">
-        <v>1059041</v>
+        <v>1321156</v>
       </c>
       <c r="AR89" s="18" t="n">
-        <v>1321156</v>
+        <v>1073277</v>
       </c>
       <c r="AS89" s="18" t="n">
-        <v>1073277</v>
+        <v>1392679</v>
       </c>
       <c r="AT89" s="18" t="n">
-        <v>1392679</v>
+        <v>1401243</v>
       </c>
       <c r="AU89" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV89" s="18" t="n">
-        <v>1401243</v>
+        <v>1210806</v>
       </c>
       <c r="AW89" s="18" t="n">
-        <v>1210806</v>
+        <v>589580</v>
       </c>
       <c r="AX89" s="18" t="n">
-        <v>589580</v>
+        <v>1203745</v>
       </c>
       <c r="AY89" s="18" t="n">
-        <v>1203745</v>
+        <v>1051586</v>
       </c>
       <c r="AZ89" s="18" t="n">
-        <v>1051586</v>
+        <v>1178550</v>
       </c>
       <c r="BA89" s="18" t="n">
-        <v>1178550</v>
+        <v>1219284</v>
       </c>
       <c r="BB89" s="18" t="n">
-        <v>1219284</v>
+        <v>892432</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14333,44 +14333,44 @@
       <c r="Z96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA96" s="13" t="s">
-        <v>58</v>
+      <c r="AA96" s="13" t="n">
+        <v>254460447</v>
       </c>
       <c r="AB96" s="13" t="n">
-        <v>254460447</v>
+        <v>275434352</v>
       </c>
       <c r="AC96" s="13" t="n">
-        <v>275434352</v>
+        <v>248183202</v>
       </c>
       <c r="AD96" s="13" t="n">
-        <v>248183202</v>
+        <v>276707090</v>
       </c>
       <c r="AE96" s="13" t="n">
-        <v>276707090</v>
+        <v>280936136</v>
       </c>
       <c r="AF96" s="13" t="n">
-        <v>280936136</v>
+        <v>309546737</v>
       </c>
       <c r="AG96" s="13" t="n">
-        <v>309546737</v>
+        <v>333951482</v>
       </c>
       <c r="AH96" s="13" t="n">
-        <v>333951482</v>
+        <v>342974359</v>
       </c>
       <c r="AI96" s="13" t="n">
-        <v>342974359</v>
+        <v>372000000</v>
       </c>
       <c r="AJ96" s="13" t="n">
-        <v>372000000</v>
+        <v>417292473</v>
       </c>
       <c r="AK96" s="13" t="n">
-        <v>417292473</v>
+        <v>439195060</v>
       </c>
       <c r="AL96" s="13" t="n">
-        <v>439195060</v>
-      </c>
-      <c r="AM96" s="13" t="n">
         <v>452145038</v>
+      </c>
+      <c r="AM96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN96" s="13" t="s">
         <v>58</v>
@@ -14564,17 +14564,17 @@
       <c r="AX97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY97" s="16" t="s">
-        <v>58</v>
+      <c r="AY97" s="16" t="n">
+        <v>908932039</v>
       </c>
       <c r="AZ97" s="16" t="n">
-        <v>908932039</v>
+        <v>896012987</v>
       </c>
       <c r="BA97" s="16" t="n">
-        <v>896012987</v>
+        <v>968798206</v>
       </c>
       <c r="BB97" s="16" t="n">
-        <v>968798206</v>
+        <v>942721088</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14687,53 +14687,53 @@
       <c r="AL98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM98" s="13" t="s">
-        <v>58</v>
+      <c r="AM98" s="13" t="n">
+        <v>481342914</v>
       </c>
       <c r="AN98" s="13" t="n">
-        <v>481342914</v>
+        <v>544759834</v>
       </c>
       <c r="AO98" s="13" t="n">
-        <v>544759834</v>
+        <v>555911765</v>
       </c>
       <c r="AP98" s="13" t="n">
-        <v>555911765</v>
+        <v>572471722</v>
       </c>
       <c r="AQ98" s="13" t="n">
-        <v>572471722</v>
+        <v>771910880</v>
       </c>
       <c r="AR98" s="13" t="n">
-        <v>771910880</v>
+        <v>806038341</v>
       </c>
       <c r="AS98" s="13" t="n">
-        <v>806038341</v>
+        <v>828634524</v>
       </c>
       <c r="AT98" s="13" t="n">
-        <v>828634524</v>
+        <v>826911693</v>
       </c>
       <c r="AU98" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV98" s="13" t="n">
-        <v>826911693</v>
+        <v>834117994</v>
       </c>
       <c r="AW98" s="13" t="n">
-        <v>834117994</v>
+        <v>809609314</v>
       </c>
       <c r="AX98" s="13" t="n">
-        <v>809609314</v>
+        <v>836693548</v>
       </c>
       <c r="AY98" s="13" t="n">
-        <v>836693548</v>
+        <v>839275424</v>
       </c>
       <c r="AZ98" s="13" t="n">
-        <v>839275424</v>
+        <v>811752964</v>
       </c>
       <c r="BA98" s="13" t="n">
-        <v>811752964</v>
+        <v>805912210</v>
       </c>
       <c r="BB98" s="13" t="n">
-        <v>805912210</v>
+        <v>921993548</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14852,14 +14852,14 @@
       <c r="AN99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO99" s="16" t="s">
-        <v>58</v>
+      <c r="AO99" s="16" t="n">
+        <v>792161290</v>
       </c>
       <c r="AP99" s="16" t="n">
-        <v>792161290</v>
-      </c>
-      <c r="AQ99" s="16" t="n">
         <v>800481481</v>
+      </c>
+      <c r="AQ99" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AR99" s="16" t="s">
         <v>58</v>
@@ -15041,17 +15041,17 @@
       <c r="AX100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY100" s="13" t="s">
-        <v>58</v>
+      <c r="AY100" s="13" t="n">
+        <v>880761468</v>
       </c>
       <c r="AZ100" s="13" t="n">
-        <v>880761468</v>
+        <v>879685393</v>
       </c>
       <c r="BA100" s="13" t="n">
-        <v>879685393</v>
+        <v>883031746</v>
       </c>
       <c r="BB100" s="13" t="n">
-        <v>883031746</v>
+        <v>1082141509</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15200,17 +15200,17 @@
       <c r="AX101" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY101" s="16" t="s">
-        <v>58</v>
+      <c r="AY101" s="16" t="n">
+        <v>773868852</v>
       </c>
       <c r="AZ101" s="16" t="n">
-        <v>773868852</v>
+        <v>767533333</v>
       </c>
       <c r="BA101" s="16" t="n">
-        <v>767533333</v>
+        <v>771870690</v>
       </c>
       <c r="BB101" s="16" t="n">
-        <v>771870690</v>
+        <v>835656250</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15359,17 +15359,17 @@
       <c r="AX102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY102" s="13" t="s">
-        <v>58</v>
+      <c r="AY102" s="13" t="n">
+        <v>551555556</v>
       </c>
       <c r="AZ102" s="13" t="n">
-        <v>551555556</v>
+        <v>525215385</v>
       </c>
       <c r="BA102" s="13" t="n">
-        <v>525215385</v>
+        <v>476630435</v>
       </c>
       <c r="BB102" s="13" t="n">
-        <v>476630435</v>
+        <v>794186047</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15503,44 +15503,44 @@
       <c r="Z104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA104" s="13" t="s">
-        <v>58</v>
+      <c r="AA104" s="13" t="n">
+        <v>236937143</v>
       </c>
       <c r="AB104" s="13" t="n">
-        <v>236937143</v>
+        <v>234645503</v>
       </c>
       <c r="AC104" s="13" t="n">
-        <v>234645503</v>
+        <v>222492958</v>
       </c>
       <c r="AD104" s="13" t="n">
-        <v>222492958</v>
+        <v>242775862</v>
       </c>
       <c r="AE104" s="13" t="n">
-        <v>242775862</v>
+        <v>193081197</v>
       </c>
       <c r="AF104" s="13" t="n">
-        <v>193081197</v>
+        <v>205838046</v>
       </c>
       <c r="AG104" s="13" t="n">
-        <v>205838046</v>
+        <v>229465278</v>
       </c>
       <c r="AH104" s="13" t="n">
-        <v>229465278</v>
+        <v>257522184</v>
       </c>
       <c r="AI104" s="13" t="n">
-        <v>257522184</v>
+        <v>254072581</v>
       </c>
       <c r="AJ104" s="13" t="n">
-        <v>254072581</v>
+        <v>259607438</v>
       </c>
       <c r="AK104" s="13" t="n">
-        <v>259607438</v>
+        <v>259603908</v>
       </c>
       <c r="AL104" s="13" t="n">
-        <v>259603908</v>
-      </c>
-      <c r="AM104" s="13" t="n">
         <v>273122417</v>
+      </c>
+      <c r="AM104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN104" s="13" t="s">
         <v>58</v>
@@ -15734,17 +15734,17 @@
       <c r="AX105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY105" s="16" t="s">
-        <v>58</v>
+      <c r="AY105" s="16" t="n">
+        <v>510000000</v>
       </c>
       <c r="AZ105" s="16" t="n">
-        <v>510000000</v>
+        <v>456333333</v>
       </c>
       <c r="BA105" s="16" t="n">
-        <v>456333333</v>
-      </c>
-      <c r="BB105" s="16" t="n">
         <v>880000000</v>
+      </c>
+      <c r="BB105" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15857,53 +15857,53 @@
       <c r="AL106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM106" s="13" t="s">
-        <v>58</v>
+      <c r="AM106" s="13" t="n">
+        <v>280018256</v>
       </c>
       <c r="AN106" s="13" t="n">
-        <v>280018256</v>
+        <v>285664303</v>
       </c>
       <c r="AO106" s="13" t="n">
-        <v>285664303</v>
+        <v>276185366</v>
       </c>
       <c r="AP106" s="13" t="n">
-        <v>276185366</v>
+        <v>342990000</v>
       </c>
       <c r="AQ106" s="13" t="n">
-        <v>342990000</v>
+        <v>466859375</v>
       </c>
       <c r="AR106" s="13" t="n">
-        <v>466859375</v>
+        <v>521140000</v>
       </c>
       <c r="AS106" s="13" t="n">
-        <v>521140000</v>
+        <v>524613861</v>
       </c>
       <c r="AT106" s="13" t="n">
-        <v>524613861</v>
+        <v>535736111</v>
       </c>
       <c r="AU106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV106" s="13" t="n">
-        <v>535736111</v>
+        <v>558675676</v>
       </c>
       <c r="AW106" s="13" t="n">
-        <v>558675676</v>
+        <v>490551948</v>
       </c>
       <c r="AX106" s="13" t="n">
-        <v>490551948</v>
+        <v>512413223</v>
       </c>
       <c r="AY106" s="13" t="n">
-        <v>512413223</v>
+        <v>658617647</v>
       </c>
       <c r="AZ106" s="13" t="n">
-        <v>658617647</v>
+        <v>608464286</v>
       </c>
       <c r="BA106" s="13" t="n">
-        <v>608464286</v>
+        <v>535921429</v>
       </c>
       <c r="BB106" s="13" t="n">
-        <v>535921429</v>
+        <v>497758065</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16052,14 +16052,14 @@
       <c r="AX107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY107" s="16" t="s">
-        <v>58</v>
+      <c r="AY107" s="16" t="n">
+        <v>600235294</v>
       </c>
       <c r="AZ107" s="16" t="n">
-        <v>600235294</v>
-      </c>
-      <c r="BA107" s="16" t="n">
         <v>554709677</v>
+      </c>
+      <c r="BA107" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB107" s="16" t="s">
         <v>58</v>
@@ -16211,17 +16211,17 @@
       <c r="AX108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY108" s="13" t="s">
-        <v>58</v>
+      <c r="AY108" s="13" t="n">
+        <v>627090909</v>
       </c>
       <c r="AZ108" s="13" t="n">
-        <v>627090909</v>
-      </c>
-      <c r="BA108" s="13" t="n">
         <v>519285714</v>
       </c>
-      <c r="BB108" s="13" t="s">
-        <v>58</v>
+      <c r="BA108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB108" s="13" t="n">
+        <v>728875000</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16370,17 +16370,17 @@
       <c r="AX109" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY109" s="16" t="s">
-        <v>58</v>
+      <c r="AY109" s="16" t="n">
+        <v>563750000</v>
       </c>
       <c r="AZ109" s="16" t="n">
-        <v>563750000</v>
+        <v>598294118</v>
       </c>
       <c r="BA109" s="16" t="n">
-        <v>598294118</v>
+        <v>766666667</v>
       </c>
       <c r="BB109" s="16" t="n">
-        <v>766666667</v>
+        <v>637666667</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghevita/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghevita/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghevita\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghevita\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0E237-E03B-407F-B5AA-0E30165DE09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4790BE09-1372-4ABC-BF82-CC6B585438D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 4 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1402/02</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1510,44 +1510,44 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>1666</v>
       </c>
       <c r="AA11" s="11">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AB11" s="11">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AC11" s="11">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AD11" s="11">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AE11" s="11">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AF11" s="11">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AG11" s="11">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AH11" s="11">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AI11" s="11">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AK11" s="11">
-        <v>1628</v>
-      </c>
-      <c r="AL11" s="11">
         <v>2090</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>58</v>
@@ -1741,20 +1741,20 @@
       <c r="AW12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX12" s="13" t="s">
-        <v>58</v>
+      <c r="AX12" s="13">
+        <v>141</v>
       </c>
       <c r="AY12" s="13">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="AZ12" s="13">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="BA12" s="13">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="BB12" s="13">
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1864,56 +1864,56 @@
       <c r="AK13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL13" s="11" t="s">
-        <v>58</v>
+      <c r="AL13" s="11">
+        <v>1557</v>
       </c>
       <c r="AM13" s="11">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AN13" s="11">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AO13" s="11">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AP13" s="11">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AQ13" s="11">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AR13" s="11">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AS13" s="11">
-        <v>1442</v>
-      </c>
-      <c r="AT13" s="11">
         <v>2003</v>
       </c>
-      <c r="AU13" s="11" t="s">
-        <v>58</v>
+      <c r="AT13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>1836</v>
       </c>
       <c r="AV13" s="11">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AW13" s="11">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AX13" s="11">
-        <v>883</v>
+        <v>711</v>
       </c>
       <c r="AY13" s="11">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="AZ13" s="11">
-        <v>757</v>
+        <v>900</v>
       </c>
       <c r="BA13" s="11">
-        <v>900</v>
+        <v>590</v>
       </c>
       <c r="BB13" s="11">
-        <v>590</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2029,17 +2029,17 @@
       <c r="AM14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN14" s="13" t="s">
-        <v>58</v>
+      <c r="AN14" s="13">
+        <v>0</v>
       </c>
       <c r="AO14" s="13">
         <v>0</v>
       </c>
-      <c r="AP14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="13" t="s">
-        <v>58</v>
+      <c r="AP14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0</v>
       </c>
       <c r="AR14" s="13">
         <v>0</v>
@@ -2047,11 +2047,11 @@
       <c r="AS14" s="13">
         <v>0</v>
       </c>
-      <c r="AT14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>0</v>
       </c>
       <c r="AV14" s="13">
         <v>0</v>
@@ -2059,8 +2059,8 @@
       <c r="AW14" s="13">
         <v>0</v>
       </c>
-      <c r="AX14" s="13">
-        <v>0</v>
+      <c r="AX14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY14" s="13" t="s">
         <v>58</v>
@@ -2218,20 +2218,20 @@
       <c r="AW15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX15" s="11" t="s">
-        <v>58</v>
+      <c r="AX15" s="11">
+        <v>112</v>
       </c>
       <c r="AY15" s="11">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="AZ15" s="11">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="BA15" s="11">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="BB15" s="11">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2377,20 +2377,20 @@
       <c r="AW16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX16" s="13" t="s">
-        <v>58</v>
+      <c r="AX16" s="13">
+        <v>83</v>
       </c>
       <c r="AY16" s="13">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AZ16" s="13">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="BA16" s="13">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="BB16" s="13">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2536,20 +2536,20 @@
       <c r="AW17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX17" s="11" t="s">
-        <v>58</v>
+      <c r="AX17" s="11">
+        <v>51</v>
       </c>
       <c r="AY17" s="11">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AZ17" s="11">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="BA17" s="11">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="BB17" s="11">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2622,91 +2622,91 @@
         <v>0</v>
       </c>
       <c r="Z18" s="15">
-        <v>0</v>
+        <v>1666</v>
       </c>
       <c r="AA18" s="15">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AB18" s="15">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AC18" s="15">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AD18" s="15">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AE18" s="15">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AF18" s="15">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AG18" s="15">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AH18" s="15">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AI18" s="15">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AJ18" s="15">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AK18" s="15">
-        <v>1628</v>
+        <v>2090</v>
       </c>
       <c r="AL18" s="15">
-        <v>2090</v>
+        <v>1557</v>
       </c>
       <c r="AM18" s="15">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AN18" s="15">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AO18" s="15">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AP18" s="15">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AQ18" s="15">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AR18" s="15">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AS18" s="15">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AT18" s="15">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="15">
-        <v>0</v>
+        <v>1836</v>
       </c>
       <c r="AV18" s="15">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AW18" s="15">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AX18" s="15">
-        <v>883</v>
+        <v>1098</v>
       </c>
       <c r="AY18" s="15">
-        <v>1098</v>
+        <v>1366</v>
       </c>
       <c r="AZ18" s="15">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="BA18" s="15">
-        <v>1372</v>
+        <v>979</v>
       </c>
       <c r="BB18" s="15">
-        <v>979</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2837,8 +2837,8 @@
       <c r="Y20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" s="11" t="s">
-        <v>58</v>
+      <c r="Z20" s="11">
+        <v>0</v>
       </c>
       <c r="AA20" s="11">
         <v>0</v>
@@ -2849,8 +2849,8 @@
       <c r="AC20" s="11">
         <v>0</v>
       </c>
-      <c r="AD20" s="11">
-        <v>0</v>
+      <c r="AD20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE20" s="11" t="s">
         <v>58</v>
@@ -3068,20 +3068,20 @@
       <c r="AW21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX21" s="13" t="s">
-        <v>58</v>
+      <c r="AX21" s="13">
+        <v>2</v>
       </c>
       <c r="AY21" s="13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AZ21" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA21" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="13">
         <v>7</v>
-      </c>
-      <c r="BB21" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3194,8 +3194,8 @@
       <c r="AL22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM22" s="11" t="s">
-        <v>58</v>
+      <c r="AM22" s="11">
+        <v>0</v>
       </c>
       <c r="AN22" s="11">
         <v>0</v>
@@ -3215,11 +3215,11 @@
       <c r="AS22" s="11">
         <v>0</v>
       </c>
-      <c r="AT22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="11" t="s">
-        <v>58</v>
+      <c r="AT22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU22" s="11">
+        <v>0</v>
       </c>
       <c r="AV22" s="11">
         <v>0</v>
@@ -3228,19 +3228,19 @@
         <v>0</v>
       </c>
       <c r="AX22" s="11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AY22" s="11">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AZ22" s="11">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="BA22" s="11">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="BB22" s="11">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3386,20 +3386,20 @@
       <c r="AW23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX23" s="13" t="s">
-        <v>58</v>
+      <c r="AX23" s="13">
+        <v>17</v>
       </c>
       <c r="AY23" s="13">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AZ23" s="13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="13">
         <v>0</v>
       </c>
       <c r="BB23" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3545,20 +3545,20 @@
       <c r="AW24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX24" s="11" t="s">
-        <v>58</v>
+      <c r="AX24" s="11">
+        <v>22</v>
       </c>
       <c r="AY24" s="11">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AZ24" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB24" s="11">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3704,20 +3704,20 @@
       <c r="AW25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX25" s="13" t="s">
-        <v>58</v>
+      <c r="AX25" s="13">
+        <v>16</v>
       </c>
       <c r="AY25" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ25" s="13">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BA25" s="13">
         <v>3</v>
       </c>
       <c r="BB25" s="13">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3862,19 +3862,19 @@
         <v>0</v>
       </c>
       <c r="AX26" s="17">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AY26" s="17">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AZ26" s="17">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="BA26" s="17">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="BB26" s="17">
-        <v>135</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4003,8 +4003,8 @@
       <c r="Y28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z28" s="17" t="s">
-        <v>58</v>
+      <c r="Z28" s="17">
+        <v>0</v>
       </c>
       <c r="AA28" s="17">
         <v>0</v>
@@ -4063,11 +4063,11 @@
       <c r="AS28" s="17">
         <v>0</v>
       </c>
-      <c r="AT28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="17" t="s">
-        <v>58</v>
+      <c r="AT28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU28" s="17">
+        <v>0</v>
       </c>
       <c r="AV28" s="17">
         <v>0</v>
@@ -4161,91 +4161,91 @@
         <v>0</v>
       </c>
       <c r="Z29" s="15">
-        <v>0</v>
+        <v>1666</v>
       </c>
       <c r="AA29" s="15">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AB29" s="15">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AC29" s="15">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AD29" s="15">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AE29" s="15">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AF29" s="15">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AG29" s="15">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AH29" s="15">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AI29" s="15">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AJ29" s="15">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AK29" s="15">
-        <v>1628</v>
+        <v>2090</v>
       </c>
       <c r="AL29" s="15">
-        <v>2090</v>
+        <v>1557</v>
       </c>
       <c r="AM29" s="15">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AN29" s="15">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AO29" s="15">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AP29" s="15">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AQ29" s="15">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AR29" s="15">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AS29" s="15">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AT29" s="15">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="15">
-        <v>0</v>
+        <v>1836</v>
       </c>
       <c r="AV29" s="15">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AW29" s="15">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AX29" s="15">
-        <v>883</v>
+        <v>1189</v>
       </c>
       <c r="AY29" s="15">
-        <v>1189</v>
+        <v>1458</v>
       </c>
       <c r="AZ29" s="15">
-        <v>1458</v>
+        <v>1522</v>
       </c>
       <c r="BA29" s="15">
-        <v>1522</v>
+        <v>1114</v>
       </c>
       <c r="BB29" s="15">
-        <v>1114</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4753,44 +4753,44 @@
       <c r="Y36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="11" t="s">
-        <v>58</v>
+      <c r="Z36" s="11">
+        <v>2326</v>
       </c>
       <c r="AA36" s="11">
-        <v>2326</v>
+        <v>2422</v>
       </c>
       <c r="AB36" s="11">
-        <v>2422</v>
+        <v>2036</v>
       </c>
       <c r="AC36" s="11">
-        <v>2036</v>
+        <v>536</v>
       </c>
       <c r="AD36" s="11">
-        <v>536</v>
+        <v>1237</v>
       </c>
       <c r="AE36" s="11">
-        <v>1237</v>
+        <v>1134</v>
       </c>
       <c r="AF36" s="11">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="AG36" s="11">
-        <v>1113</v>
+        <v>1053</v>
       </c>
       <c r="AH36" s="11">
-        <v>1053</v>
+        <v>1377</v>
       </c>
       <c r="AI36" s="11">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="AJ36" s="11">
-        <v>1395</v>
+        <v>1579</v>
       </c>
       <c r="AK36" s="11">
-        <v>1579</v>
-      </c>
-      <c r="AL36" s="11">
         <v>1572</v>
+      </c>
+      <c r="AL36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM36" s="11" t="s">
         <v>58</v>
@@ -4984,20 +4984,20 @@
       <c r="AW37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX37" s="13" t="s">
-        <v>58</v>
+      <c r="AX37" s="13">
+        <v>206</v>
       </c>
       <c r="AY37" s="13">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="AZ37" s="13">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="BA37" s="13">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="BB37" s="13">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5107,56 +5107,56 @@
       <c r="AK38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL38" s="11" t="s">
-        <v>58</v>
+      <c r="AL38" s="11">
+        <v>1009</v>
       </c>
       <c r="AM38" s="11">
-        <v>1009</v>
+        <v>483</v>
       </c>
       <c r="AN38" s="11">
-        <v>483</v>
+        <v>816</v>
       </c>
       <c r="AO38" s="11">
-        <v>816</v>
+        <v>1609</v>
       </c>
       <c r="AP38" s="11">
-        <v>1609</v>
+        <v>1728</v>
       </c>
       <c r="AQ38" s="11">
-        <v>1728</v>
+        <v>1278</v>
       </c>
       <c r="AR38" s="11">
-        <v>1278</v>
+        <v>1680</v>
       </c>
       <c r="AS38" s="11">
-        <v>1680</v>
-      </c>
-      <c r="AT38" s="11">
         <v>1642</v>
       </c>
-      <c r="AU38" s="11" t="s">
-        <v>58</v>
+      <c r="AT38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU38" s="11">
+        <v>1356</v>
       </c>
       <c r="AV38" s="11">
-        <v>1356</v>
+        <v>773</v>
       </c>
       <c r="AW38" s="11">
-        <v>773</v>
+        <v>1488</v>
       </c>
       <c r="AX38" s="11">
-        <v>1488</v>
+        <v>944</v>
       </c>
       <c r="AY38" s="11">
-        <v>944</v>
+        <v>1012</v>
       </c>
       <c r="AZ38" s="11">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="BA38" s="11">
-        <v>991</v>
+        <v>620</v>
       </c>
       <c r="BB38" s="11">
-        <v>620</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5272,17 +5272,17 @@
       <c r="AM39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN39" s="13" t="s">
-        <v>58</v>
+      <c r="AN39" s="13">
+        <v>248</v>
       </c>
       <c r="AO39" s="13">
-        <v>248</v>
-      </c>
-      <c r="AP39" s="13">
         <v>135</v>
       </c>
-      <c r="AQ39" s="13" t="s">
-        <v>58</v>
+      <c r="AP39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>0</v>
       </c>
       <c r="AR39" s="13">
         <v>0</v>
@@ -5290,11 +5290,11 @@
       <c r="AS39" s="13">
         <v>0</v>
       </c>
-      <c r="AT39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="13" t="s">
-        <v>58</v>
+      <c r="AT39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>0</v>
       </c>
       <c r="AV39" s="13">
         <v>0</v>
@@ -5302,8 +5302,8 @@
       <c r="AW39" s="13">
         <v>0</v>
       </c>
-      <c r="AX39" s="13">
-        <v>0</v>
+      <c r="AX39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY39" s="13" t="s">
         <v>58</v>
@@ -5461,20 +5461,20 @@
       <c r="AW40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX40" s="11" t="s">
-        <v>58</v>
+      <c r="AX40" s="11">
+        <v>109</v>
       </c>
       <c r="AY40" s="11">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="AZ40" s="11">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="BA40" s="11">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="BB40" s="11">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5620,20 +5620,20 @@
       <c r="AW41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX41" s="13" t="s">
-        <v>58</v>
+      <c r="AX41" s="13">
+        <v>61</v>
       </c>
       <c r="AY41" s="13">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AZ41" s="13">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="BA41" s="13">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="BB41" s="13">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5779,20 +5779,20 @@
       <c r="AW42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX42" s="11" t="s">
-        <v>58</v>
+      <c r="AX42" s="11">
+        <v>45</v>
       </c>
       <c r="AY42" s="11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AZ42" s="11">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="BA42" s="11">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="BB42" s="11">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5865,91 +5865,91 @@
         <v>0</v>
       </c>
       <c r="Z43" s="15">
-        <v>0</v>
+        <v>2326</v>
       </c>
       <c r="AA43" s="15">
-        <v>2326</v>
+        <v>2422</v>
       </c>
       <c r="AB43" s="15">
-        <v>2422</v>
+        <v>2036</v>
       </c>
       <c r="AC43" s="15">
-        <v>2036</v>
+        <v>536</v>
       </c>
       <c r="AD43" s="15">
-        <v>536</v>
+        <v>1237</v>
       </c>
       <c r="AE43" s="15">
-        <v>1237</v>
+        <v>1134</v>
       </c>
       <c r="AF43" s="15">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="AG43" s="15">
-        <v>1113</v>
+        <v>1053</v>
       </c>
       <c r="AH43" s="15">
-        <v>1053</v>
+        <v>1377</v>
       </c>
       <c r="AI43" s="15">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="AJ43" s="15">
-        <v>1395</v>
+        <v>1579</v>
       </c>
       <c r="AK43" s="15">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="AL43" s="15">
-        <v>1572</v>
+        <v>1009</v>
       </c>
       <c r="AM43" s="15">
-        <v>1009</v>
+        <v>483</v>
       </c>
       <c r="AN43" s="15">
-        <v>483</v>
+        <v>1064</v>
       </c>
       <c r="AO43" s="15">
-        <v>1064</v>
+        <v>1744</v>
       </c>
       <c r="AP43" s="15">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="AQ43" s="15">
-        <v>1728</v>
+        <v>1278</v>
       </c>
       <c r="AR43" s="15">
-        <v>1278</v>
+        <v>1680</v>
       </c>
       <c r="AS43" s="15">
-        <v>1680</v>
+        <v>1642</v>
       </c>
       <c r="AT43" s="15">
-        <v>1642</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="15">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="AV43" s="15">
-        <v>1356</v>
+        <v>773</v>
       </c>
       <c r="AW43" s="15">
-        <v>773</v>
+        <v>1488</v>
       </c>
       <c r="AX43" s="15">
-        <v>1488</v>
+        <v>1365</v>
       </c>
       <c r="AY43" s="15">
-        <v>1365</v>
+        <v>1576</v>
       </c>
       <c r="AZ43" s="15">
-        <v>1576</v>
+        <v>1548</v>
       </c>
       <c r="BA43" s="15">
-        <v>1548</v>
+        <v>948</v>
       </c>
       <c r="BB43" s="15">
-        <v>948</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6080,44 +6080,44 @@
       <c r="Y45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Z45" s="11">
+        <v>175</v>
       </c>
       <c r="AA45" s="11">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="AB45" s="11">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="AC45" s="11">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="AD45" s="11">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="AE45" s="11">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="AF45" s="11">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="AG45" s="11">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AH45" s="11">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="AI45" s="11">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="AJ45" s="11">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="AK45" s="11">
-        <v>563</v>
-      </c>
-      <c r="AL45" s="11">
         <v>629</v>
+      </c>
+      <c r="AL45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM45" s="11" t="s">
         <v>58</v>
@@ -6311,20 +6311,20 @@
       <c r="AW46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX46" s="13" t="s">
-        <v>58</v>
+      <c r="AX46" s="13">
+        <v>2</v>
       </c>
       <c r="AY46" s="13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AZ46" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA46" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="13">
         <v>7</v>
-      </c>
-      <c r="BB46" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6434,56 +6434,56 @@
       <c r="AK47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL47" s="11" t="s">
-        <v>58</v>
+      <c r="AL47" s="11">
+        <v>493</v>
       </c>
       <c r="AM47" s="11">
-        <v>493</v>
+        <v>423</v>
       </c>
       <c r="AN47" s="11">
-        <v>423</v>
+        <v>205</v>
       </c>
       <c r="AO47" s="11">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AP47" s="11">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="AQ47" s="11">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AR47" s="11">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AS47" s="11">
-        <v>101</v>
-      </c>
-      <c r="AT47" s="11">
         <v>144</v>
       </c>
-      <c r="AU47" s="11" t="s">
-        <v>58</v>
+      <c r="AT47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU47" s="11">
+        <v>222</v>
       </c>
       <c r="AV47" s="11">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="AW47" s="11">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="AX47" s="11">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="AY47" s="11">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AZ47" s="11">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="BA47" s="11">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="BB47" s="11">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6629,20 +6629,20 @@
       <c r="AW48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX48" s="13" t="s">
-        <v>58</v>
+      <c r="AX48" s="13">
+        <v>17</v>
       </c>
       <c r="AY48" s="13">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AZ48" s="13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="13">
         <v>0</v>
       </c>
       <c r="BB48" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6788,20 +6788,20 @@
       <c r="AW49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX49" s="11" t="s">
-        <v>58</v>
+      <c r="AX49" s="11">
+        <v>22</v>
       </c>
       <c r="AY49" s="11">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AZ49" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB49" s="11">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6947,20 +6947,20 @@
       <c r="AW50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX50" s="13" t="s">
-        <v>58</v>
+      <c r="AX50" s="13">
+        <v>16</v>
       </c>
       <c r="AY50" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ50" s="13">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BA50" s="13">
         <v>3</v>
       </c>
       <c r="BB50" s="13">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7033,91 +7033,91 @@
         <v>0</v>
       </c>
       <c r="Z51" s="17">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AA51" s="17">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="AB51" s="17">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="AC51" s="17">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="AD51" s="17">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="AE51" s="17">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="AF51" s="17">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="AG51" s="17">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AH51" s="17">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="AI51" s="17">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="AJ51" s="17">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="AK51" s="17">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="AL51" s="17">
-        <v>629</v>
+        <v>493</v>
       </c>
       <c r="AM51" s="17">
-        <v>493</v>
+        <v>423</v>
       </c>
       <c r="AN51" s="17">
-        <v>423</v>
+        <v>205</v>
       </c>
       <c r="AO51" s="17">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AP51" s="17">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="AQ51" s="17">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AR51" s="17">
+        <v>101</v>
+      </c>
+      <c r="AS51" s="17">
+        <v>144</v>
+      </c>
+      <c r="AT51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="17">
+        <v>222</v>
+      </c>
+      <c r="AV51" s="17">
+        <v>154</v>
+      </c>
+      <c r="AW51" s="17">
+        <v>121</v>
+      </c>
+      <c r="AX51" s="17">
+        <v>91</v>
+      </c>
+      <c r="AY51" s="17">
+        <v>92</v>
+      </c>
+      <c r="AZ51" s="17">
         <v>150</v>
       </c>
-      <c r="AS51" s="17">
-        <v>101</v>
-      </c>
-      <c r="AT51" s="17">
-        <v>144</v>
-      </c>
-      <c r="AU51" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV51" s="17">
-        <v>222</v>
-      </c>
-      <c r="AW51" s="17">
-        <v>154</v>
-      </c>
-      <c r="AX51" s="17">
-        <v>121</v>
-      </c>
-      <c r="AY51" s="17">
-        <v>91</v>
-      </c>
-      <c r="AZ51" s="17">
-        <v>92</v>
-      </c>
       <c r="BA51" s="17">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="BB51" s="17">
-        <v>135</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7246,8 +7246,8 @@
       <c r="Y53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="17" t="s">
-        <v>58</v>
+      <c r="Z53" s="17">
+        <v>0</v>
       </c>
       <c r="AA53" s="17">
         <v>0</v>
@@ -7306,11 +7306,11 @@
       <c r="AS53" s="17">
         <v>0</v>
       </c>
-      <c r="AT53" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU53" s="17" t="s">
-        <v>58</v>
+      <c r="AT53" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU53" s="17">
+        <v>0</v>
       </c>
       <c r="AV53" s="17">
         <v>0</v>
@@ -7462,44 +7462,44 @@
       <c r="Y55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="11" t="s">
-        <v>58</v>
+      <c r="Z55" s="11">
+        <v>-35</v>
       </c>
       <c r="AA55" s="11">
-        <v>-35</v>
+        <v>-68</v>
       </c>
       <c r="AB55" s="11">
-        <v>-68</v>
+        <v>-78</v>
       </c>
       <c r="AC55" s="11">
-        <v>-78</v>
+        <v>-18</v>
       </c>
       <c r="AD55" s="11">
-        <v>-18</v>
+        <v>-95</v>
       </c>
       <c r="AE55" s="11">
-        <v>-95</v>
+        <v>-32</v>
       </c>
       <c r="AF55" s="11">
-        <v>-32</v>
+        <v>-15</v>
       </c>
       <c r="AG55" s="11">
-        <v>-15</v>
+        <v>-37</v>
       </c>
       <c r="AH55" s="11">
-        <v>-37</v>
+        <v>-19</v>
       </c>
       <c r="AI55" s="11">
-        <v>-19</v>
+        <v>-185</v>
       </c>
       <c r="AJ55" s="11">
-        <v>-185</v>
+        <v>-43</v>
       </c>
       <c r="AK55" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AL55" s="11">
         <v>-71</v>
+      </c>
+      <c r="AL55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM55" s="11" t="s">
         <v>58</v>
@@ -7657,56 +7657,56 @@
       <c r="AK56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL56" s="13" t="s">
-        <v>58</v>
+      <c r="AL56" s="13">
+        <v>-31</v>
       </c>
       <c r="AM56" s="13">
-        <v>-31</v>
+        <v>-43</v>
       </c>
       <c r="AN56" s="13">
-        <v>-43</v>
+        <v>-16</v>
       </c>
       <c r="AO56" s="13">
+        <v>-35</v>
+      </c>
+      <c r="AP56" s="13">
+        <v>-23</v>
+      </c>
+      <c r="AQ56" s="13">
+        <v>-15</v>
+      </c>
+      <c r="AR56" s="13">
+        <v>-24</v>
+      </c>
+      <c r="AS56" s="13">
+        <v>-8</v>
+      </c>
+      <c r="AT56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU56" s="13">
         <v>-16</v>
       </c>
-      <c r="AP56" s="13">
-        <v>-35</v>
-      </c>
-      <c r="AQ56" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AR56" s="13">
-        <v>-15</v>
-      </c>
-      <c r="AS56" s="13">
-        <v>-24</v>
-      </c>
-      <c r="AT56" s="13">
-        <v>-8</v>
-      </c>
-      <c r="AU56" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AV56" s="13">
-        <v>-16</v>
+        <v>-112</v>
       </c>
       <c r="AW56" s="13">
-        <v>-112</v>
+        <v>-99</v>
       </c>
       <c r="AX56" s="13">
-        <v>-99</v>
+        <v>-144</v>
       </c>
       <c r="AY56" s="13">
-        <v>-144</v>
+        <v>-163</v>
       </c>
       <c r="AZ56" s="13">
-        <v>-163</v>
+        <v>-120</v>
       </c>
       <c r="BA56" s="13">
-        <v>-120</v>
+        <v>-65</v>
       </c>
       <c r="BB56" s="13">
-        <v>-65</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7778,92 +7778,92 @@
       <c r="Y57" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z57" s="17" t="s">
-        <v>58</v>
+      <c r="Z57" s="17">
+        <v>-35</v>
       </c>
       <c r="AA57" s="17">
+        <v>-68</v>
+      </c>
+      <c r="AB57" s="17">
+        <v>-78</v>
+      </c>
+      <c r="AC57" s="17">
+        <v>-18</v>
+      </c>
+      <c r="AD57" s="17">
+        <v>-95</v>
+      </c>
+      <c r="AE57" s="17">
+        <v>-32</v>
+      </c>
+      <c r="AF57" s="17">
+        <v>-15</v>
+      </c>
+      <c r="AG57" s="17">
+        <v>-37</v>
+      </c>
+      <c r="AH57" s="17">
+        <v>-19</v>
+      </c>
+      <c r="AI57" s="17">
+        <v>-185</v>
+      </c>
+      <c r="AJ57" s="17">
+        <v>-43</v>
+      </c>
+      <c r="AK57" s="17">
+        <v>-71</v>
+      </c>
+      <c r="AL57" s="17">
+        <v>-31</v>
+      </c>
+      <c r="AM57" s="17">
+        <v>-43</v>
+      </c>
+      <c r="AN57" s="17">
+        <v>-16</v>
+      </c>
+      <c r="AO57" s="17">
         <v>-35</v>
       </c>
-      <c r="AB57" s="17">
-        <v>-68</v>
-      </c>
-      <c r="AC57" s="17">
-        <v>-78</v>
-      </c>
-      <c r="AD57" s="17">
-        <v>-18</v>
-      </c>
-      <c r="AE57" s="17">
-        <v>-95</v>
-      </c>
-      <c r="AF57" s="17">
-        <v>-32</v>
-      </c>
-      <c r="AG57" s="17">
+      <c r="AP57" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AQ57" s="17">
         <v>-15</v>
       </c>
-      <c r="AH57" s="17">
-        <v>-37</v>
-      </c>
-      <c r="AI57" s="17">
+      <c r="AR57" s="17">
+        <v>-24</v>
+      </c>
+      <c r="AS57" s="17">
+        <v>-8</v>
+      </c>
+      <c r="AT57" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU57" s="17">
+        <v>-16</v>
+      </c>
+      <c r="AV57" s="17">
+        <v>-112</v>
+      </c>
+      <c r="AW57" s="17">
+        <v>-99</v>
+      </c>
+      <c r="AX57" s="17">
+        <v>-144</v>
+      </c>
+      <c r="AY57" s="17">
+        <v>-163</v>
+      </c>
+      <c r="AZ57" s="17">
+        <v>-120</v>
+      </c>
+      <c r="BA57" s="17">
+        <v>-65</v>
+      </c>
+      <c r="BB57" s="17">
         <v>-19</v>
-      </c>
-      <c r="AJ57" s="17">
-        <v>-185</v>
-      </c>
-      <c r="AK57" s="17">
-        <v>-43</v>
-      </c>
-      <c r="AL57" s="17">
-        <v>-71</v>
-      </c>
-      <c r="AM57" s="17">
-        <v>-31</v>
-      </c>
-      <c r="AN57" s="17">
-        <v>-43</v>
-      </c>
-      <c r="AO57" s="17">
-        <v>-16</v>
-      </c>
-      <c r="AP57" s="17">
-        <v>-35</v>
-      </c>
-      <c r="AQ57" s="17">
-        <v>-23</v>
-      </c>
-      <c r="AR57" s="17">
-        <v>-15</v>
-      </c>
-      <c r="AS57" s="17">
-        <v>-24</v>
-      </c>
-      <c r="AT57" s="17">
-        <v>-8</v>
-      </c>
-      <c r="AU57" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV57" s="17">
-        <v>-16</v>
-      </c>
-      <c r="AW57" s="17">
-        <v>-112</v>
-      </c>
-      <c r="AX57" s="17">
-        <v>-99</v>
-      </c>
-      <c r="AY57" s="17">
-        <v>-144</v>
-      </c>
-      <c r="AZ57" s="17">
-        <v>-163</v>
-      </c>
-      <c r="BA57" s="17">
-        <v>-120</v>
-      </c>
-      <c r="BB57" s="17">
-        <v>-65</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7936,91 +7936,91 @@
         <v>0</v>
       </c>
       <c r="Z58" s="15">
-        <v>0</v>
+        <v>2466</v>
       </c>
       <c r="AA58" s="15">
-        <v>2466</v>
+        <v>2732</v>
       </c>
       <c r="AB58" s="15">
-        <v>2732</v>
+        <v>2171</v>
       </c>
       <c r="AC58" s="15">
-        <v>2171</v>
+        <v>576</v>
       </c>
       <c r="AD58" s="15">
-        <v>576</v>
+        <v>1376</v>
       </c>
       <c r="AE58" s="15">
-        <v>1376</v>
+        <v>1491</v>
       </c>
       <c r="AF58" s="15">
-        <v>1491</v>
+        <v>1386</v>
       </c>
       <c r="AG58" s="15">
-        <v>1386</v>
+        <v>1309</v>
       </c>
       <c r="AH58" s="15">
-        <v>1309</v>
+        <v>1730</v>
       </c>
       <c r="AI58" s="15">
-        <v>1730</v>
+        <v>1452</v>
       </c>
       <c r="AJ58" s="15">
-        <v>1452</v>
+        <v>2099</v>
       </c>
       <c r="AK58" s="15">
-        <v>2099</v>
+        <v>2130</v>
       </c>
       <c r="AL58" s="15">
-        <v>2130</v>
+        <v>1471</v>
       </c>
       <c r="AM58" s="15">
-        <v>1471</v>
+        <v>863</v>
       </c>
       <c r="AN58" s="15">
-        <v>863</v>
+        <v>1253</v>
       </c>
       <c r="AO58" s="15">
-        <v>1253</v>
+        <v>1909</v>
       </c>
       <c r="AP58" s="15">
-        <v>1909</v>
+        <v>1769</v>
       </c>
       <c r="AQ58" s="15">
-        <v>1769</v>
+        <v>1413</v>
       </c>
       <c r="AR58" s="15">
-        <v>1413</v>
+        <v>1757</v>
       </c>
       <c r="AS58" s="15">
-        <v>1757</v>
+        <v>1778</v>
       </c>
       <c r="AT58" s="15">
-        <v>1778</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="15">
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="AV58" s="15">
-        <v>1562</v>
+        <v>815</v>
       </c>
       <c r="AW58" s="15">
-        <v>815</v>
+        <v>1510</v>
       </c>
       <c r="AX58" s="15">
-        <v>1510</v>
+        <v>1312</v>
       </c>
       <c r="AY58" s="15">
-        <v>1312</v>
+        <v>1505</v>
       </c>
       <c r="AZ58" s="15">
-        <v>1505</v>
+        <v>1578</v>
       </c>
       <c r="BA58" s="15">
-        <v>1578</v>
+        <v>1018</v>
       </c>
       <c r="BB58" s="15">
-        <v>1018</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8528,44 +8528,44 @@
       <c r="Y65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
+      <c r="Z65" s="11">
+        <v>591875</v>
       </c>
       <c r="AA65" s="11">
-        <v>591875</v>
+        <v>667102</v>
       </c>
       <c r="AB65" s="11">
-        <v>667102</v>
+        <v>505301</v>
       </c>
       <c r="AC65" s="11">
-        <v>505301</v>
+        <v>148315</v>
       </c>
       <c r="AD65" s="11">
-        <v>148315</v>
+        <v>347518</v>
       </c>
       <c r="AE65" s="11">
-        <v>347518</v>
+        <v>351026</v>
       </c>
       <c r="AF65" s="11">
-        <v>351026</v>
+        <v>371688</v>
       </c>
       <c r="AG65" s="11">
-        <v>371688</v>
+        <v>361152</v>
       </c>
       <c r="AH65" s="11">
-        <v>361152</v>
+        <v>512244</v>
       </c>
       <c r="AI65" s="11">
-        <v>512244</v>
+        <v>582123</v>
       </c>
       <c r="AJ65" s="11">
-        <v>582123</v>
+        <v>693489</v>
       </c>
       <c r="AK65" s="11">
-        <v>693489</v>
-      </c>
-      <c r="AL65" s="11">
         <v>710772</v>
+      </c>
+      <c r="AL65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM65" s="11" t="s">
         <v>58</v>
@@ -8759,20 +8759,20 @@
       <c r="AW66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX66" s="13" t="s">
-        <v>58</v>
+      <c r="AX66" s="13">
+        <v>187240</v>
       </c>
       <c r="AY66" s="13">
-        <v>187240</v>
+        <v>206979</v>
       </c>
       <c r="AZ66" s="13">
-        <v>206979</v>
+        <v>216042</v>
       </c>
       <c r="BA66" s="13">
-        <v>216042</v>
+        <v>138580</v>
       </c>
       <c r="BB66" s="13">
-        <v>138580</v>
+        <v>261189</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8882,56 +8882,56 @@
       <c r="AK67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL67" s="11" t="s">
-        <v>58</v>
+      <c r="AL67" s="11">
+        <v>485675</v>
       </c>
       <c r="AM67" s="11">
-        <v>485675</v>
+        <v>263119</v>
       </c>
       <c r="AN67" s="11">
-        <v>263119</v>
+        <v>453624</v>
       </c>
       <c r="AO67" s="11">
-        <v>453624</v>
+        <v>921107</v>
       </c>
       <c r="AP67" s="11">
-        <v>921107</v>
+        <v>1333862</v>
       </c>
       <c r="AQ67" s="11">
-        <v>1333862</v>
+        <v>1030117</v>
       </c>
       <c r="AR67" s="11">
-        <v>1030117</v>
+        <v>1392106</v>
       </c>
       <c r="AS67" s="11">
-        <v>1392106</v>
-      </c>
-      <c r="AT67" s="11">
         <v>1357789</v>
       </c>
-      <c r="AU67" s="11" t="s">
-        <v>58</v>
+      <c r="AT67" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU67" s="11">
+        <v>1131064</v>
       </c>
       <c r="AV67" s="11">
-        <v>1131064</v>
+        <v>625828</v>
       </c>
       <c r="AW67" s="11">
-        <v>625828</v>
+        <v>1245000</v>
       </c>
       <c r="AX67" s="11">
-        <v>1245000</v>
+        <v>792276</v>
       </c>
       <c r="AY67" s="11">
-        <v>792276</v>
+        <v>821494</v>
       </c>
       <c r="AZ67" s="11">
-        <v>821494</v>
+        <v>798659</v>
       </c>
       <c r="BA67" s="11">
-        <v>798659</v>
+        <v>571636</v>
       </c>
       <c r="BB67" s="11">
-        <v>571636</v>
+        <v>1017391</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9047,17 +9047,17 @@
       <c r="AM68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN68" s="13" t="s">
-        <v>58</v>
+      <c r="AN68" s="13">
+        <v>196456</v>
       </c>
       <c r="AO68" s="13">
-        <v>196456</v>
-      </c>
-      <c r="AP68" s="13">
         <v>108065</v>
       </c>
-      <c r="AQ68" s="13" t="s">
-        <v>58</v>
+      <c r="AP68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ68" s="13">
+        <v>0</v>
       </c>
       <c r="AR68" s="13">
         <v>0</v>
@@ -9065,11 +9065,11 @@
       <c r="AS68" s="13">
         <v>0</v>
       </c>
-      <c r="AT68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU68" s="13" t="s">
-        <v>58</v>
+      <c r="AT68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU68" s="13">
+        <v>0</v>
       </c>
       <c r="AV68" s="13">
         <v>0</v>
@@ -9077,8 +9077,8 @@
       <c r="AW68" s="13">
         <v>0</v>
       </c>
-      <c r="AX68" s="13">
-        <v>0</v>
+      <c r="AX68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY68" s="13" t="s">
         <v>58</v>
@@ -9236,20 +9236,20 @@
       <c r="AW69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX69" s="11" t="s">
-        <v>58</v>
+      <c r="AX69" s="11">
+        <v>96003</v>
       </c>
       <c r="AY69" s="11">
-        <v>96003</v>
+        <v>156584</v>
       </c>
       <c r="AZ69" s="11">
-        <v>156584</v>
+        <v>111262</v>
       </c>
       <c r="BA69" s="11">
-        <v>111262</v>
+        <v>114707</v>
       </c>
       <c r="BB69" s="11">
-        <v>114707</v>
+        <v>179318</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9395,20 +9395,20 @@
       <c r="AW70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX70" s="13" t="s">
-        <v>58</v>
+      <c r="AX70" s="13">
+        <v>47206</v>
       </c>
       <c r="AY70" s="13">
-        <v>47206</v>
+        <v>69078</v>
       </c>
       <c r="AZ70" s="13">
-        <v>69078</v>
+        <v>89537</v>
       </c>
       <c r="BA70" s="13">
-        <v>89537</v>
+        <v>26741</v>
       </c>
       <c r="BB70" s="13">
-        <v>26741</v>
+        <v>46055</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9554,20 +9554,20 @@
       <c r="AW71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX71" s="11" t="s">
-        <v>58</v>
+      <c r="AX71" s="11">
+        <v>24820</v>
       </c>
       <c r="AY71" s="11">
-        <v>24820</v>
+        <v>34139</v>
       </c>
       <c r="AZ71" s="11">
-        <v>34139</v>
+        <v>43850</v>
       </c>
       <c r="BA71" s="11">
-        <v>43850</v>
+        <v>34150</v>
       </c>
       <c r="BB71" s="11">
-        <v>34150</v>
+        <v>47391</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9640,91 +9640,91 @@
         <v>0</v>
       </c>
       <c r="Z72" s="15">
-        <v>0</v>
+        <v>591875</v>
       </c>
       <c r="AA72" s="15">
-        <v>591875</v>
+        <v>667102</v>
       </c>
       <c r="AB72" s="15">
-        <v>667102</v>
+        <v>505301</v>
       </c>
       <c r="AC72" s="15">
-        <v>505301</v>
+        <v>148315</v>
       </c>
       <c r="AD72" s="15">
-        <v>148315</v>
+        <v>347518</v>
       </c>
       <c r="AE72" s="15">
-        <v>347518</v>
+        <v>351026</v>
       </c>
       <c r="AF72" s="15">
-        <v>351026</v>
+        <v>371688</v>
       </c>
       <c r="AG72" s="15">
-        <v>371688</v>
+        <v>361152</v>
       </c>
       <c r="AH72" s="15">
-        <v>361152</v>
+        <v>512244</v>
       </c>
       <c r="AI72" s="15">
-        <v>512244</v>
+        <v>582123</v>
       </c>
       <c r="AJ72" s="15">
-        <v>582123</v>
+        <v>693489</v>
       </c>
       <c r="AK72" s="15">
-        <v>693489</v>
+        <v>710772</v>
       </c>
       <c r="AL72" s="15">
-        <v>710772</v>
+        <v>485675</v>
       </c>
       <c r="AM72" s="15">
-        <v>485675</v>
+        <v>263119</v>
       </c>
       <c r="AN72" s="15">
-        <v>263119</v>
+        <v>650080</v>
       </c>
       <c r="AO72" s="15">
-        <v>650080</v>
+        <v>1029172</v>
       </c>
       <c r="AP72" s="15">
-        <v>1029172</v>
+        <v>1333862</v>
       </c>
       <c r="AQ72" s="15">
-        <v>1333862</v>
+        <v>1030117</v>
       </c>
       <c r="AR72" s="15">
-        <v>1030117</v>
+        <v>1392106</v>
       </c>
       <c r="AS72" s="15">
-        <v>1392106</v>
+        <v>1357789</v>
       </c>
       <c r="AT72" s="15">
-        <v>1357789</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="15">
-        <v>0</v>
+        <v>1131064</v>
       </c>
       <c r="AV72" s="15">
-        <v>1131064</v>
+        <v>625828</v>
       </c>
       <c r="AW72" s="15">
-        <v>625828</v>
+        <v>1245000</v>
       </c>
       <c r="AX72" s="15">
-        <v>1245000</v>
+        <v>1147545</v>
       </c>
       <c r="AY72" s="15">
-        <v>1147545</v>
+        <v>1288274</v>
       </c>
       <c r="AZ72" s="15">
-        <v>1288274</v>
+        <v>1259350</v>
       </c>
       <c r="BA72" s="15">
-        <v>1259350</v>
+        <v>885814</v>
       </c>
       <c r="BB72" s="15">
-        <v>885814</v>
+        <v>1551344</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9855,44 +9855,44 @@
       <c r="Y74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z74" s="11" t="s">
-        <v>58</v>
+      <c r="Z74" s="11">
+        <v>41464</v>
       </c>
       <c r="AA74" s="11">
-        <v>41464</v>
+        <v>88696</v>
       </c>
       <c r="AB74" s="11">
-        <v>88696</v>
+        <v>47391</v>
       </c>
       <c r="AC74" s="11">
-        <v>47391</v>
+        <v>14081</v>
       </c>
       <c r="AD74" s="11">
-        <v>14081</v>
+        <v>45181</v>
       </c>
       <c r="AE74" s="11">
-        <v>45181</v>
+        <v>80071</v>
       </c>
       <c r="AF74" s="11">
-        <v>80071</v>
+        <v>66086</v>
       </c>
       <c r="AG74" s="11">
-        <v>66086</v>
+        <v>75454</v>
       </c>
       <c r="AH74" s="11">
-        <v>75454</v>
+        <v>94515</v>
       </c>
       <c r="AI74" s="11">
-        <v>94515</v>
+        <v>62825</v>
       </c>
       <c r="AJ74" s="11">
-        <v>62825</v>
+        <v>146157</v>
       </c>
       <c r="AK74" s="11">
-        <v>146157</v>
-      </c>
-      <c r="AL74" s="11">
         <v>171794</v>
+      </c>
+      <c r="AL74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM74" s="11" t="s">
         <v>58</v>
@@ -10086,20 +10086,20 @@
       <c r="AW75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX75" s="13" t="s">
-        <v>58</v>
+      <c r="AX75" s="13">
+        <v>1020</v>
       </c>
       <c r="AY75" s="13">
-        <v>1020</v>
+        <v>4107</v>
       </c>
       <c r="AZ75" s="13">
-        <v>4107</v>
+        <v>6160</v>
       </c>
       <c r="BA75" s="13">
-        <v>6160</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="13">
-        <v>0</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10209,56 +10209,56 @@
       <c r="AK76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL76" s="11" t="s">
-        <v>58</v>
+      <c r="AL76" s="11">
+        <v>138049</v>
       </c>
       <c r="AM76" s="11">
-        <v>138049</v>
+        <v>120836</v>
       </c>
       <c r="AN76" s="11">
-        <v>120836</v>
+        <v>56618</v>
       </c>
       <c r="AO76" s="11">
-        <v>56618</v>
+        <v>68598</v>
       </c>
       <c r="AP76" s="11">
-        <v>68598</v>
+        <v>29879</v>
       </c>
       <c r="AQ76" s="11">
-        <v>29879</v>
+        <v>78171</v>
       </c>
       <c r="AR76" s="11">
-        <v>78171</v>
+        <v>52986</v>
       </c>
       <c r="AS76" s="11">
-        <v>52986</v>
-      </c>
-      <c r="AT76" s="11">
         <v>77146</v>
       </c>
-      <c r="AU76" s="11" t="s">
-        <v>58</v>
+      <c r="AT76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU76" s="11">
+        <v>124026</v>
       </c>
       <c r="AV76" s="11">
-        <v>124026</v>
+        <v>75545</v>
       </c>
       <c r="AW76" s="11">
-        <v>75545</v>
+        <v>62002</v>
       </c>
       <c r="AX76" s="11">
-        <v>62002</v>
+        <v>22393</v>
       </c>
       <c r="AY76" s="11">
-        <v>22393</v>
+        <v>17037</v>
       </c>
       <c r="AZ76" s="11">
-        <v>17037</v>
+        <v>75029</v>
       </c>
       <c r="BA76" s="11">
-        <v>75029</v>
+        <v>61722</v>
       </c>
       <c r="BB76" s="11">
-        <v>61722</v>
+        <v>128004</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10404,20 +10404,20 @@
       <c r="AW77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX77" s="13" t="s">
-        <v>58</v>
+      <c r="AX77" s="13">
+        <v>10204</v>
       </c>
       <c r="AY77" s="13">
-        <v>10204</v>
+        <v>17196</v>
       </c>
       <c r="AZ77" s="13">
-        <v>17196</v>
+        <v>0</v>
       </c>
       <c r="BA77" s="13">
         <v>0</v>
       </c>
       <c r="BB77" s="13">
-        <v>0</v>
+        <v>10212</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10563,20 +10563,20 @@
       <c r="AW78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX78" s="11" t="s">
-        <v>58</v>
+      <c r="AX78" s="11">
+        <v>13796</v>
       </c>
       <c r="AY78" s="11">
-        <v>13796</v>
+        <v>3635</v>
       </c>
       <c r="AZ78" s="11">
-        <v>3635</v>
+        <v>151</v>
       </c>
       <c r="BA78" s="11">
-        <v>151</v>
+        <v>5831</v>
       </c>
       <c r="BB78" s="11">
-        <v>5831</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10722,20 +10722,20 @@
       <c r="AW79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX79" s="13" t="s">
-        <v>58</v>
+      <c r="AX79" s="13">
+        <v>9020</v>
       </c>
       <c r="AY79" s="13">
-        <v>9020</v>
+        <v>10171</v>
       </c>
       <c r="AZ79" s="13">
-        <v>10171</v>
+        <v>2300</v>
       </c>
       <c r="BA79" s="13">
-        <v>2300</v>
+        <v>1913</v>
       </c>
       <c r="BB79" s="13">
-        <v>1913</v>
+        <v>21653</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10808,91 +10808,91 @@
         <v>0</v>
       </c>
       <c r="Z80" s="17">
-        <v>0</v>
+        <v>41464</v>
       </c>
       <c r="AA80" s="17">
-        <v>41464</v>
+        <v>88696</v>
       </c>
       <c r="AB80" s="17">
-        <v>88696</v>
+        <v>47391</v>
       </c>
       <c r="AC80" s="17">
-        <v>47391</v>
+        <v>14081</v>
       </c>
       <c r="AD80" s="17">
-        <v>14081</v>
+        <v>45181</v>
       </c>
       <c r="AE80" s="17">
-        <v>45181</v>
+        <v>80071</v>
       </c>
       <c r="AF80" s="17">
-        <v>80071</v>
+        <v>66086</v>
       </c>
       <c r="AG80" s="17">
-        <v>66086</v>
+        <v>75454</v>
       </c>
       <c r="AH80" s="17">
-        <v>75454</v>
+        <v>94515</v>
       </c>
       <c r="AI80" s="17">
-        <v>94515</v>
+        <v>62825</v>
       </c>
       <c r="AJ80" s="17">
-        <v>62825</v>
+        <v>146157</v>
       </c>
       <c r="AK80" s="17">
-        <v>146157</v>
+        <v>171794</v>
       </c>
       <c r="AL80" s="17">
-        <v>171794</v>
+        <v>138049</v>
       </c>
       <c r="AM80" s="17">
-        <v>138049</v>
+        <v>120836</v>
       </c>
       <c r="AN80" s="17">
-        <v>120836</v>
+        <v>56618</v>
       </c>
       <c r="AO80" s="17">
-        <v>56618</v>
+        <v>68598</v>
       </c>
       <c r="AP80" s="17">
-        <v>68598</v>
+        <v>29879</v>
       </c>
       <c r="AQ80" s="17">
-        <v>29879</v>
+        <v>78171</v>
       </c>
       <c r="AR80" s="17">
-        <v>78171</v>
+        <v>52986</v>
       </c>
       <c r="AS80" s="17">
-        <v>52986</v>
+        <v>77146</v>
       </c>
       <c r="AT80" s="17">
-        <v>77146</v>
+        <v>0</v>
       </c>
       <c r="AU80" s="17">
-        <v>0</v>
+        <v>124026</v>
       </c>
       <c r="AV80" s="17">
-        <v>124026</v>
+        <v>75545</v>
       </c>
       <c r="AW80" s="17">
-        <v>75545</v>
+        <v>62002</v>
       </c>
       <c r="AX80" s="17">
-        <v>62002</v>
+        <v>56433</v>
       </c>
       <c r="AY80" s="17">
-        <v>56433</v>
+        <v>52146</v>
       </c>
       <c r="AZ80" s="17">
-        <v>52146</v>
+        <v>83640</v>
       </c>
       <c r="BA80" s="17">
-        <v>83640</v>
+        <v>69466</v>
       </c>
       <c r="BB80" s="17">
-        <v>69466</v>
+        <v>187274</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11023,8 +11023,8 @@
       <c r="Y82" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="17" t="s">
-        <v>58</v>
+      <c r="Z82" s="17">
+        <v>0</v>
       </c>
       <c r="AA82" s="17">
         <v>0</v>
@@ -11083,11 +11083,11 @@
       <c r="AS82" s="17">
         <v>0</v>
       </c>
-      <c r="AT82" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU82" s="17" t="s">
-        <v>58</v>
+      <c r="AT82" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU82" s="17">
+        <v>0</v>
       </c>
       <c r="AV82" s="17">
         <v>0</v>
@@ -11239,44 +11239,44 @@
       <c r="Y84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z84" s="11" t="s">
-        <v>58</v>
+      <c r="Z84" s="11">
+        <v>-8958</v>
       </c>
       <c r="AA84" s="11">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AB84" s="11">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AC84" s="11">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AD84" s="11">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AE84" s="11">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AF84" s="11">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AG84" s="11">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AH84" s="11">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AI84" s="11">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AJ84" s="11">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AK84" s="11">
-        <v>-18062</v>
-      </c>
-      <c r="AL84" s="11">
         <v>-25646</v>
+      </c>
+      <c r="AL84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM84" s="11" t="s">
         <v>58</v>
@@ -11434,56 +11434,56 @@
       <c r="AK85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL85" s="13" t="s">
-        <v>58</v>
+      <c r="AL85" s="13">
+        <v>-11135</v>
       </c>
       <c r="AM85" s="13">
-        <v>-11135</v>
+        <v>-20214</v>
       </c>
       <c r="AN85" s="13">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AO85" s="13">
-        <v>-8563</v>
+        <v>-19667</v>
       </c>
       <c r="AP85" s="13">
-        <v>-19667</v>
+        <v>-16756</v>
       </c>
       <c r="AQ85" s="13">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AR85" s="13">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AS85" s="13">
-        <v>-20516</v>
-      </c>
-      <c r="AT85" s="13">
         <v>-8303</v>
       </c>
-      <c r="AU85" s="13" t="s">
-        <v>58</v>
+      <c r="AT85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU85" s="13">
+        <v>-13644</v>
       </c>
       <c r="AV85" s="13">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="AW85" s="13">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
       <c r="AX85" s="13">
-        <v>-77235</v>
+        <v>-128272</v>
       </c>
       <c r="AY85" s="13">
-        <v>-128272</v>
+        <v>-139313</v>
       </c>
       <c r="AZ85" s="13">
-        <v>-139313</v>
+        <v>-99587</v>
       </c>
       <c r="BA85" s="13">
-        <v>-99587</v>
+        <v>-38900</v>
       </c>
       <c r="BB85" s="13">
-        <v>-38900</v>
+        <v>-16506</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11557,92 +11557,92 @@
       <c r="Y86" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="17" t="s">
-        <v>58</v>
+      <c r="Z86" s="17">
+        <v>-8958</v>
       </c>
       <c r="AA86" s="17">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AB86" s="17">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AC86" s="17">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AD86" s="17">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AE86" s="17">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AF86" s="17">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AG86" s="17">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AH86" s="17">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AI86" s="17">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AJ86" s="17">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AK86" s="17">
-        <v>-18062</v>
+        <v>-25646</v>
       </c>
       <c r="AL86" s="17">
-        <v>-25646</v>
+        <v>-11135</v>
       </c>
       <c r="AM86" s="17">
-        <v>-11135</v>
+        <v>-20214</v>
       </c>
       <c r="AN86" s="17">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AO86" s="17">
-        <v>-8563</v>
+        <v>-19667</v>
       </c>
       <c r="AP86" s="17">
-        <v>-19667</v>
+        <v>-16756</v>
       </c>
       <c r="AQ86" s="17">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AR86" s="17">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AS86" s="17">
-        <v>-20516</v>
-      </c>
-      <c r="AT86" s="17">
         <v>-8303</v>
       </c>
-      <c r="AU86" s="17" t="s">
-        <v>58</v>
+      <c r="AT86" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU86" s="17">
+        <v>-13644</v>
       </c>
       <c r="AV86" s="17">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="AW86" s="17">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
       <c r="AX86" s="17">
-        <v>-77235</v>
+        <v>-128272</v>
       </c>
       <c r="AY86" s="17">
-        <v>-128272</v>
+        <v>-139313</v>
       </c>
       <c r="AZ86" s="17">
-        <v>-139313</v>
+        <v>-99587</v>
       </c>
       <c r="BA86" s="17">
-        <v>-99587</v>
+        <v>-38900</v>
       </c>
       <c r="BB86" s="17">
-        <v>-38900</v>
+        <v>-16506</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11773,92 +11773,92 @@
       <c r="Y88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z88" s="11" t="s">
-        <v>58</v>
+      <c r="Z88" s="11">
+        <v>-72004</v>
       </c>
       <c r="AA88" s="11">
-        <v>-72004</v>
+        <v>-31609</v>
       </c>
       <c r="AB88" s="11">
-        <v>-31609</v>
+        <v>-65563</v>
       </c>
       <c r="AC88" s="11">
-        <v>-65563</v>
+        <v>-6327</v>
       </c>
       <c r="AD88" s="11">
-        <v>-6327</v>
+        <v>-50592</v>
       </c>
       <c r="AE88" s="11">
-        <v>-50592</v>
+        <v>-33987</v>
       </c>
       <c r="AF88" s="11">
-        <v>-33987</v>
+        <v>-17116</v>
       </c>
       <c r="AG88" s="11">
-        <v>-17116</v>
+        <v>-15914</v>
       </c>
       <c r="AH88" s="11">
-        <v>-15914</v>
+        <v>-24884</v>
       </c>
       <c r="AI88" s="11">
-        <v>-24884</v>
+        <v>-26636</v>
       </c>
       <c r="AJ88" s="11">
-        <v>-26636</v>
+        <v>-41158</v>
       </c>
       <c r="AK88" s="11">
-        <v>-41158</v>
+        <v>-49124</v>
       </c>
       <c r="AL88" s="11">
-        <v>-49124</v>
+        <v>-44815</v>
       </c>
       <c r="AM88" s="11">
-        <v>-44815</v>
+        <v>-6319</v>
       </c>
       <c r="AN88" s="11">
-        <v>-6319</v>
+        <v>-9993</v>
       </c>
       <c r="AO88" s="11">
-        <v>-9993</v>
+        <v>-19062</v>
       </c>
       <c r="AP88" s="11">
-        <v>-19062</v>
+        <v>-25829</v>
       </c>
       <c r="AQ88" s="11">
-        <v>-25829</v>
+        <v>-22942</v>
       </c>
       <c r="AR88" s="11">
-        <v>-22942</v>
+        <v>-31897</v>
       </c>
       <c r="AS88" s="11">
-        <v>-31897</v>
-      </c>
-      <c r="AT88" s="11">
         <v>-25389</v>
       </c>
-      <c r="AU88" s="11" t="s">
-        <v>58</v>
+      <c r="AT88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU88" s="11">
+        <v>-30640</v>
       </c>
       <c r="AV88" s="11">
-        <v>-30640</v>
+        <v>-12646</v>
       </c>
       <c r="AW88" s="11">
-        <v>-12646</v>
+        <v>-26022</v>
       </c>
       <c r="AX88" s="11">
-        <v>-26022</v>
+        <v>-24120</v>
       </c>
       <c r="AY88" s="11">
-        <v>-24120</v>
+        <v>-22557</v>
       </c>
       <c r="AZ88" s="11">
-        <v>-22557</v>
+        <v>-24119</v>
       </c>
       <c r="BA88" s="11">
-        <v>-24119</v>
+        <v>-23948</v>
       </c>
       <c r="BB88" s="11">
-        <v>-23948</v>
+        <v>-35437</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11931,91 +11931,91 @@
         <v>0</v>
       </c>
       <c r="Z89" s="15">
-        <v>0</v>
+        <v>552377</v>
       </c>
       <c r="AA89" s="15">
-        <v>552377</v>
+        <v>706952</v>
       </c>
       <c r="AB89" s="15">
-        <v>706952</v>
+        <v>465609</v>
       </c>
       <c r="AC89" s="15">
-        <v>465609</v>
+        <v>150097</v>
       </c>
       <c r="AD89" s="15">
-        <v>150097</v>
+        <v>315345</v>
       </c>
       <c r="AE89" s="15">
-        <v>315345</v>
+        <v>388458</v>
       </c>
       <c r="AF89" s="15">
-        <v>388458</v>
+        <v>416403</v>
       </c>
       <c r="AG89" s="15">
-        <v>416403</v>
+        <v>408971</v>
       </c>
       <c r="AH89" s="15">
-        <v>408971</v>
+        <v>575619</v>
       </c>
       <c r="AI89" s="15">
-        <v>575619</v>
+        <v>571526</v>
       </c>
       <c r="AJ89" s="15">
-        <v>571526</v>
+        <v>780426</v>
       </c>
       <c r="AK89" s="15">
-        <v>780426</v>
+        <v>807796</v>
       </c>
       <c r="AL89" s="15">
-        <v>807796</v>
+        <v>567774</v>
       </c>
       <c r="AM89" s="15">
-        <v>567774</v>
+        <v>357422</v>
       </c>
       <c r="AN89" s="15">
-        <v>357422</v>
+        <v>688142</v>
       </c>
       <c r="AO89" s="15">
-        <v>688142</v>
+        <v>1059041</v>
       </c>
       <c r="AP89" s="15">
-        <v>1059041</v>
+        <v>1321156</v>
       </c>
       <c r="AQ89" s="15">
-        <v>1321156</v>
+        <v>1073277</v>
       </c>
       <c r="AR89" s="15">
-        <v>1073277</v>
+        <v>1392679</v>
       </c>
       <c r="AS89" s="15">
-        <v>1392679</v>
+        <v>1401243</v>
       </c>
       <c r="AT89" s="15">
-        <v>1401243</v>
+        <v>0</v>
       </c>
       <c r="AU89" s="15">
-        <v>0</v>
+        <v>1210806</v>
       </c>
       <c r="AV89" s="15">
-        <v>1210806</v>
+        <v>589580</v>
       </c>
       <c r="AW89" s="15">
-        <v>589580</v>
+        <v>1203745</v>
       </c>
       <c r="AX89" s="15">
-        <v>1203745</v>
+        <v>1051586</v>
       </c>
       <c r="AY89" s="15">
-        <v>1051586</v>
+        <v>1178550</v>
       </c>
       <c r="AZ89" s="15">
-        <v>1178550</v>
+        <v>1219284</v>
       </c>
       <c r="BA89" s="15">
-        <v>1219284</v>
+        <v>892432</v>
       </c>
       <c r="BB89" s="15">
-        <v>892432</v>
+        <v>1686675</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -12523,44 +12523,44 @@
       <c r="Y96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z96" s="11" t="s">
-        <v>58</v>
+      <c r="Z96" s="11">
+        <v>254460447</v>
       </c>
       <c r="AA96" s="11">
-        <v>254460447</v>
+        <v>275434352</v>
       </c>
       <c r="AB96" s="11">
-        <v>275434352</v>
+        <v>248183202</v>
       </c>
       <c r="AC96" s="11">
-        <v>248183202</v>
+        <v>276707090</v>
       </c>
       <c r="AD96" s="11">
-        <v>276707090</v>
+        <v>280936136</v>
       </c>
       <c r="AE96" s="11">
-        <v>280936136</v>
+        <v>309546737</v>
       </c>
       <c r="AF96" s="11">
-        <v>309546737</v>
+        <v>333951482</v>
       </c>
       <c r="AG96" s="11">
-        <v>333951482</v>
+        <v>342974359</v>
       </c>
       <c r="AH96" s="11">
-        <v>342974359</v>
+        <v>372000000</v>
       </c>
       <c r="AI96" s="11">
-        <v>372000000</v>
+        <v>417292473</v>
       </c>
       <c r="AJ96" s="11">
-        <v>417292473</v>
+        <v>439195060</v>
       </c>
       <c r="AK96" s="11">
-        <v>439195060</v>
-      </c>
-      <c r="AL96" s="11">
         <v>452145038</v>
+      </c>
+      <c r="AL96" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM96" s="11" t="s">
         <v>58</v>
@@ -12754,20 +12754,20 @@
       <c r="AW97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX97" s="13" t="s">
-        <v>58</v>
+      <c r="AX97" s="13">
+        <v>908932039</v>
       </c>
       <c r="AY97" s="13">
-        <v>908932039</v>
+        <v>896012987</v>
       </c>
       <c r="AZ97" s="13">
-        <v>896012987</v>
+        <v>968798206</v>
       </c>
       <c r="BA97" s="13">
-        <v>968798206</v>
+        <v>942721088</v>
       </c>
       <c r="BB97" s="13">
-        <v>942721088</v>
+        <v>1036464286</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12877,56 +12877,56 @@
       <c r="AK98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL98" s="11" t="s">
-        <v>58</v>
+      <c r="AL98" s="11">
+        <v>481342914</v>
       </c>
       <c r="AM98" s="11">
-        <v>481342914</v>
+        <v>544759834</v>
       </c>
       <c r="AN98" s="11">
-        <v>544759834</v>
+        <v>555911765</v>
       </c>
       <c r="AO98" s="11">
-        <v>555911765</v>
+        <v>572471722</v>
       </c>
       <c r="AP98" s="11">
-        <v>572471722</v>
+        <v>771910880</v>
       </c>
       <c r="AQ98" s="11">
-        <v>771910880</v>
+        <v>806038341</v>
       </c>
       <c r="AR98" s="11">
-        <v>806038341</v>
+        <v>828634524</v>
       </c>
       <c r="AS98" s="11">
-        <v>828634524</v>
-      </c>
-      <c r="AT98" s="11">
         <v>826911693</v>
       </c>
-      <c r="AU98" s="11" t="s">
-        <v>58</v>
+      <c r="AT98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU98" s="11">
+        <v>834117994</v>
       </c>
       <c r="AV98" s="11">
-        <v>834117994</v>
+        <v>809609314</v>
       </c>
       <c r="AW98" s="11">
-        <v>809609314</v>
+        <v>836693548</v>
       </c>
       <c r="AX98" s="11">
-        <v>836693548</v>
+        <v>839275424</v>
       </c>
       <c r="AY98" s="11">
-        <v>839275424</v>
+        <v>811752964</v>
       </c>
       <c r="AZ98" s="11">
-        <v>811752964</v>
+        <v>805912210</v>
       </c>
       <c r="BA98" s="11">
-        <v>805912210</v>
+        <v>921993548</v>
       </c>
       <c r="BB98" s="11">
-        <v>921993548</v>
+        <v>962526963</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13042,14 +13042,14 @@
       <c r="AM99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN99" s="13" t="s">
-        <v>58</v>
+      <c r="AN99" s="13">
+        <v>792161290</v>
       </c>
       <c r="AO99" s="13">
-        <v>792161290</v>
-      </c>
-      <c r="AP99" s="13">
         <v>800481481</v>
+      </c>
+      <c r="AP99" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ99" s="13" t="s">
         <v>58</v>
@@ -13231,20 +13231,20 @@
       <c r="AW100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX100" s="11" t="s">
-        <v>58</v>
+      <c r="AX100" s="11">
+        <v>880761468</v>
       </c>
       <c r="AY100" s="11">
-        <v>880761468</v>
+        <v>879685393</v>
       </c>
       <c r="AZ100" s="11">
-        <v>879685393</v>
+        <v>883031746</v>
       </c>
       <c r="BA100" s="11">
-        <v>883031746</v>
+        <v>1082141509</v>
       </c>
       <c r="BB100" s="11">
-        <v>1082141509</v>
+        <v>1067369048</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -13390,20 +13390,20 @@
       <c r="AW101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX101" s="13" t="s">
-        <v>58</v>
+      <c r="AX101" s="13">
+        <v>773868852</v>
       </c>
       <c r="AY101" s="13">
-        <v>773868852</v>
+        <v>767533333</v>
       </c>
       <c r="AZ101" s="13">
-        <v>767533333</v>
+        <v>771870690</v>
       </c>
       <c r="BA101" s="13">
-        <v>771870690</v>
+        <v>835656250</v>
       </c>
       <c r="BB101" s="13">
-        <v>835656250</v>
+        <v>868962264</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -13549,20 +13549,20 @@
       <c r="AW102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX102" s="11" t="s">
-        <v>58</v>
+      <c r="AX102" s="11">
+        <v>551555556</v>
       </c>
       <c r="AY102" s="11">
-        <v>551555556</v>
+        <v>525215385</v>
       </c>
       <c r="AZ102" s="11">
-        <v>525215385</v>
+        <v>476630435</v>
       </c>
       <c r="BA102" s="11">
-        <v>476630435</v>
+        <v>794186047</v>
       </c>
       <c r="BB102" s="11">
-        <v>794186047</v>
+        <v>803237288</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13693,44 +13693,44 @@
       <c r="Y104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z104" s="11" t="s">
-        <v>58</v>
+      <c r="Z104" s="11">
+        <v>236937143</v>
       </c>
       <c r="AA104" s="11">
-        <v>236937143</v>
+        <v>234645503</v>
       </c>
       <c r="AB104" s="11">
-        <v>234645503</v>
+        <v>222492958</v>
       </c>
       <c r="AC104" s="11">
-        <v>222492958</v>
+        <v>242775862</v>
       </c>
       <c r="AD104" s="11">
-        <v>242775862</v>
+        <v>193081197</v>
       </c>
       <c r="AE104" s="11">
-        <v>193081197</v>
+        <v>205838046</v>
       </c>
       <c r="AF104" s="11">
-        <v>205838046</v>
+        <v>229465278</v>
       </c>
       <c r="AG104" s="11">
-        <v>229465278</v>
+        <v>257522184</v>
       </c>
       <c r="AH104" s="11">
-        <v>257522184</v>
+        <v>254072581</v>
       </c>
       <c r="AI104" s="11">
-        <v>254072581</v>
+        <v>259607438</v>
       </c>
       <c r="AJ104" s="11">
-        <v>259607438</v>
+        <v>259603908</v>
       </c>
       <c r="AK104" s="11">
-        <v>259603908</v>
-      </c>
-      <c r="AL104" s="11">
         <v>273122417</v>
+      </c>
+      <c r="AL104" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM104" s="11" t="s">
         <v>58</v>
@@ -13924,20 +13924,20 @@
       <c r="AW105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX105" s="13" t="s">
-        <v>58</v>
+      <c r="AX105" s="13">
+        <v>510000000</v>
       </c>
       <c r="AY105" s="13">
-        <v>510000000</v>
+        <v>456333333</v>
       </c>
       <c r="AZ105" s="13">
-        <v>456333333</v>
-      </c>
-      <c r="BA105" s="13">
         <v>880000000</v>
       </c>
-      <c r="BB105" s="13" t="s">
-        <v>58</v>
+      <c r="BA105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB105" s="13">
+        <v>975285714</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14047,56 +14047,56 @@
       <c r="AK106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL106" s="11" t="s">
-        <v>58</v>
+      <c r="AL106" s="11">
+        <v>280018256</v>
       </c>
       <c r="AM106" s="11">
-        <v>280018256</v>
+        <v>285664303</v>
       </c>
       <c r="AN106" s="11">
-        <v>285664303</v>
+        <v>276185366</v>
       </c>
       <c r="AO106" s="11">
-        <v>276185366</v>
+        <v>342990000</v>
       </c>
       <c r="AP106" s="11">
-        <v>342990000</v>
+        <v>466859375</v>
       </c>
       <c r="AQ106" s="11">
-        <v>466859375</v>
+        <v>521140000</v>
       </c>
       <c r="AR106" s="11">
-        <v>521140000</v>
+        <v>524613861</v>
       </c>
       <c r="AS106" s="11">
-        <v>524613861</v>
-      </c>
-      <c r="AT106" s="11">
         <v>535736111</v>
       </c>
-      <c r="AU106" s="11" t="s">
-        <v>58</v>
+      <c r="AT106" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU106" s="11">
+        <v>558675676</v>
       </c>
       <c r="AV106" s="11">
-        <v>558675676</v>
+        <v>490551948</v>
       </c>
       <c r="AW106" s="11">
-        <v>490551948</v>
+        <v>512413223</v>
       </c>
       <c r="AX106" s="11">
-        <v>512413223</v>
+        <v>658617647</v>
       </c>
       <c r="AY106" s="11">
-        <v>658617647</v>
+        <v>608464286</v>
       </c>
       <c r="AZ106" s="11">
-        <v>608464286</v>
+        <v>535921429</v>
       </c>
       <c r="BA106" s="11">
-        <v>535921429</v>
+        <v>497758065</v>
       </c>
       <c r="BB106" s="11">
-        <v>497758065</v>
+        <v>558969432</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -14242,20 +14242,20 @@
       <c r="AW107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX107" s="13" t="s">
-        <v>58</v>
+      <c r="AX107" s="13">
+        <v>600235294</v>
       </c>
       <c r="AY107" s="13">
-        <v>600235294</v>
-      </c>
-      <c r="AZ107" s="13">
         <v>554709677</v>
       </c>
+      <c r="AZ107" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BA107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB107" s="13" t="s">
-        <v>58</v>
+      <c r="BB107" s="13">
+        <v>464181818</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.3">
@@ -14401,20 +14401,20 @@
       <c r="AW108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX108" s="11" t="s">
-        <v>58</v>
+      <c r="AX108" s="11">
+        <v>627090909</v>
       </c>
       <c r="AY108" s="11">
-        <v>627090909</v>
-      </c>
-      <c r="AZ108" s="11">
         <v>519285714</v>
       </c>
-      <c r="BA108" s="11" t="s">
-        <v>58</v>
+      <c r="AZ108" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA108" s="11">
+        <v>728875000</v>
       </c>
       <c r="BB108" s="11">
-        <v>728875000</v>
+        <v>571611111</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.3">
@@ -14560,20 +14560,20 @@
       <c r="AW109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX109" s="13" t="s">
-        <v>58</v>
+      <c r="AX109" s="13">
+        <v>563750000</v>
       </c>
       <c r="AY109" s="13">
-        <v>563750000</v>
+        <v>598294118</v>
       </c>
       <c r="AZ109" s="13">
-        <v>598294118</v>
+        <v>766666667</v>
       </c>
       <c r="BA109" s="13">
-        <v>766666667</v>
+        <v>637666667</v>
       </c>
       <c r="BB109" s="13">
-        <v>637666667</v>
+        <v>698483871</v>
       </c>
     </row>
   </sheetData>
